--- a/SessionBackup/LastSessionItems.xlsx
+++ b/SessionBackup/LastSessionItems.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SorazaImport\Desktop\codebarPrintingTool\SessionBackup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan\Desktop\codebarPrintingTool\SessionBackup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E433AAE6-9C29-4453-AB91-935F28A16275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B605F0AC-B448-4E82-B303-977314AC4CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Productos" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8138" uniqueCount="5033">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8139" uniqueCount="5034">
   <si>
     <t>#</t>
   </si>
@@ -15130,6 +15130,9 @@
   </si>
   <si>
     <t>SD008-Ajicero</t>
+  </si>
+  <si>
+    <t>F030-PANTALONETA</t>
   </si>
 </sst>
 </file>
@@ -15470,7 +15473,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A3:L4067"/>
+  <dimension ref="A3:L4068"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9558" workbookViewId="0">
       <selection activeCell="B9561" sqref="B9561"/>
@@ -53215,84 +53218,84 @@
     </row>
     <row r="3432" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3432" t="s">
-        <v>3655</v>
+        <v>5028</v>
       </c>
       <c r="E3432" t="s">
-        <v>4143</v>
+        <v>5032</v>
       </c>
       <c r="K3432">
-        <v>5.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3433" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3433" t="s">
-        <v>3656</v>
+        <v>3655</v>
       </c>
       <c r="E3433" t="s">
-        <v>4192</v>
+        <v>4143</v>
       </c>
       <c r="K3433">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="3434" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3434" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="E3434" t="s">
-        <v>4607</v>
+        <v>4192</v>
       </c>
       <c r="K3434">
-        <v>20</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="3435" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3435" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
       <c r="E3435" t="s">
-        <v>4456</v>
+        <v>4607</v>
       </c>
       <c r="K3435">
-        <v>3.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3436" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3436" t="s">
-        <v>3659</v>
+        <v>3658</v>
       </c>
       <c r="E3436" t="s">
-        <v>4733</v>
+        <v>4456</v>
       </c>
       <c r="K3436">
-        <v>5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3437" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3437" t="s">
-        <v>3660</v>
+        <v>3659</v>
       </c>
       <c r="E3437" t="s">
         <v>4733</v>
       </c>
       <c r="K3437">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3438" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3438" t="s">
-        <v>3661</v>
+        <v>3660</v>
       </c>
       <c r="E3438" t="s">
-        <v>4882</v>
+        <v>4733</v>
       </c>
       <c r="K3438">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3439" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3439" t="s">
-        <v>3662</v>
+        <v>3661</v>
       </c>
       <c r="E3439" t="s">
         <v>4882</v>
@@ -53303,153 +53306,153 @@
     </row>
     <row r="3440" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3440" t="s">
-        <v>5024</v>
+        <v>3662</v>
       </c>
       <c r="E3440" t="s">
-        <v>4462</v>
+        <v>4882</v>
       </c>
       <c r="K3440">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3441" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3441" t="s">
-        <v>3663</v>
+        <v>5024</v>
       </c>
       <c r="E3441" t="s">
-        <v>4722</v>
+        <v>4462</v>
       </c>
       <c r="K3441">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3442" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3442" t="s">
-        <v>3664</v>
+        <v>3663</v>
       </c>
       <c r="E3442" t="s">
         <v>4722</v>
       </c>
       <c r="K3442">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3443" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3443" t="s">
-        <v>3665</v>
+        <v>3664</v>
       </c>
       <c r="E3443" t="s">
         <v>4722</v>
       </c>
       <c r="K3443">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3444" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3444" t="s">
-        <v>3666</v>
+        <v>3665</v>
       </c>
       <c r="E3444" t="s">
-        <v>4785</v>
+        <v>4722</v>
       </c>
       <c r="K3444">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3445" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3445" t="s">
-        <v>3667</v>
+        <v>3666</v>
       </c>
       <c r="E3445" t="s">
-        <v>4883</v>
+        <v>4785</v>
       </c>
       <c r="K3445">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3446" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3446" t="s">
-        <v>3668</v>
+        <v>3667</v>
       </c>
       <c r="E3446" t="s">
-        <v>4072</v>
+        <v>4883</v>
       </c>
       <c r="K3446">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3447" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3447" t="s">
-        <v>3669</v>
+        <v>3668</v>
       </c>
       <c r="E3447" t="s">
-        <v>4884</v>
+        <v>4072</v>
       </c>
       <c r="K3447">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3448" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3448" t="s">
-        <v>3670</v>
+        <v>3669</v>
       </c>
       <c r="E3448" t="s">
-        <v>4796</v>
+        <v>4884</v>
       </c>
       <c r="K3448">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3449" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3449" t="s">
-        <v>3671</v>
+        <v>3670</v>
       </c>
       <c r="E3449" t="s">
-        <v>4403</v>
+        <v>4796</v>
       </c>
       <c r="K3449">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3450" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3450" t="s">
-        <v>3672</v>
+        <v>3671</v>
       </c>
       <c r="E3450" t="s">
-        <v>4422</v>
+        <v>4403</v>
       </c>
       <c r="K3450">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3451" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3451" t="s">
-        <v>3673</v>
+        <v>3672</v>
       </c>
       <c r="E3451" t="s">
-        <v>4105</v>
+        <v>4422</v>
       </c>
       <c r="K3451">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3452" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3452" t="s">
-        <v>3674</v>
+        <v>3673</v>
       </c>
       <c r="E3452" t="s">
-        <v>4843</v>
+        <v>4105</v>
       </c>
       <c r="K3452">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3453" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3453" t="s">
-        <v>3675</v>
+        <v>3674</v>
       </c>
       <c r="E3453" t="s">
-        <v>4885</v>
+        <v>4843</v>
       </c>
       <c r="K3453">
         <v>3</v>
@@ -53457,109 +53460,109 @@
     </row>
     <row r="3454" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3454" t="s">
-        <v>3676</v>
+        <v>3675</v>
       </c>
       <c r="E3454" t="s">
-        <v>4660</v>
+        <v>4885</v>
       </c>
       <c r="K3454">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3455" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3455" t="s">
-        <v>3677</v>
+        <v>3676</v>
       </c>
       <c r="E3455" t="s">
         <v>4660</v>
       </c>
       <c r="K3455">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3456" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3456" t="s">
-        <v>3678</v>
+        <v>3677</v>
       </c>
       <c r="E3456" t="s">
-        <v>4886</v>
+        <v>4660</v>
       </c>
       <c r="K3456">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3457" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3457" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="E3457" t="s">
-        <v>4819</v>
+        <v>4886</v>
       </c>
       <c r="K3457">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3458" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3458" t="s">
-        <v>3680</v>
+        <v>3679</v>
       </c>
       <c r="E3458" t="s">
-        <v>4660</v>
+        <v>4819</v>
       </c>
       <c r="K3458">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3459" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3459" t="s">
-        <v>5025</v>
+        <v>3680</v>
       </c>
       <c r="E3459" t="s">
-        <v>4423</v>
+        <v>4660</v>
       </c>
       <c r="K3459">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3460" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3460" t="s">
-        <v>3681</v>
+        <v>5025</v>
       </c>
       <c r="E3460" t="s">
-        <v>4874</v>
+        <v>4423</v>
       </c>
       <c r="K3460">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3461" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3461" t="s">
-        <v>3682</v>
+        <v>3681</v>
       </c>
       <c r="E3461" t="s">
         <v>4874</v>
       </c>
       <c r="K3461">
-        <v>22</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3462" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3462" t="s">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="E3462" t="s">
-        <v>4887</v>
+        <v>4874</v>
       </c>
       <c r="K3462">
-        <v>2.5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3463" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3463" t="s">
-        <v>3684</v>
+        <v>3683</v>
       </c>
       <c r="E3463" t="s">
-        <v>4580</v>
+        <v>4887</v>
       </c>
       <c r="K3463">
         <v>2.5</v>
@@ -53567,73 +53570,73 @@
     </row>
     <row r="3464" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3464" t="s">
-        <v>3685</v>
+        <v>3684</v>
       </c>
       <c r="E3464" t="s">
-        <v>4887</v>
+        <v>4580</v>
       </c>
       <c r="K3464">
-        <v>10</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3465" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3465" t="s">
-        <v>3686</v>
+        <v>3685</v>
       </c>
       <c r="E3465" t="s">
         <v>4887</v>
       </c>
       <c r="K3465">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3466" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3466" t="s">
-        <v>3687</v>
+        <v>3686</v>
       </c>
       <c r="E3466" t="s">
         <v>4887</v>
       </c>
       <c r="K3466">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3467" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3467" t="s">
-        <v>3688</v>
+        <v>3687</v>
       </c>
       <c r="E3467" t="s">
-        <v>4636</v>
+        <v>4887</v>
       </c>
       <c r="K3467">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3468" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3468" t="s">
-        <v>3689</v>
+        <v>3688</v>
       </c>
       <c r="E3468" t="s">
-        <v>4071</v>
+        <v>4636</v>
       </c>
       <c r="K3468">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3469" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3469" t="s">
-        <v>3690</v>
+        <v>3689</v>
       </c>
       <c r="E3469" t="s">
-        <v>4606</v>
+        <v>4071</v>
       </c>
       <c r="K3469">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3470" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3470" t="s">
-        <v>3691</v>
+        <v>3690</v>
       </c>
       <c r="E3470" t="s">
         <v>4606</v>
@@ -53644,76 +53647,76 @@
     </row>
     <row r="3471" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3471" t="s">
-        <v>3692</v>
+        <v>3691</v>
       </c>
       <c r="E3471" t="s">
-        <v>4888</v>
+        <v>4606</v>
       </c>
       <c r="K3471">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3472" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3472" t="s">
-        <v>3693</v>
+        <v>3692</v>
       </c>
       <c r="E3472" t="s">
         <v>4888</v>
       </c>
       <c r="K3472">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3473" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3473" t="s">
-        <v>3694</v>
+        <v>3693</v>
       </c>
       <c r="E3473" t="s">
         <v>4888</v>
       </c>
       <c r="K3473">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3474" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3474" t="s">
-        <v>3695</v>
+        <v>3694</v>
       </c>
       <c r="E3474" t="s">
         <v>4888</v>
       </c>
       <c r="K3474">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3475" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3475" t="s">
-        <v>3696</v>
+        <v>3695</v>
       </c>
       <c r="E3475" t="s">
         <v>4888</v>
       </c>
       <c r="K3475">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3476" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3476" t="s">
-        <v>3697</v>
+        <v>3696</v>
       </c>
       <c r="E3476" t="s">
         <v>4888</v>
       </c>
       <c r="K3476">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3477" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3477" t="s">
-        <v>3698</v>
+        <v>3697</v>
       </c>
       <c r="E3477" t="s">
-        <v>4889</v>
+        <v>4888</v>
       </c>
       <c r="K3477">
         <v>20</v>
@@ -53721,274 +53724,274 @@
     </row>
     <row r="3478" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3478" t="s">
-        <v>3699</v>
+        <v>3698</v>
       </c>
       <c r="E3478" t="s">
-        <v>4890</v>
+        <v>4889</v>
       </c>
       <c r="K3478">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3479" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3479" t="s">
-        <v>3700</v>
+        <v>3699</v>
       </c>
       <c r="E3479" t="s">
-        <v>4888</v>
+        <v>4890</v>
       </c>
       <c r="K3479">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3480" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3480" t="s">
-        <v>5026</v>
+        <v>3700</v>
       </c>
       <c r="E3480" t="s">
-        <v>5014</v>
+        <v>4888</v>
       </c>
       <c r="K3480">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3481" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3481" t="s">
-        <v>5027</v>
+        <v>5026</v>
       </c>
       <c r="E3481" t="s">
-        <v>5013</v>
+        <v>5014</v>
       </c>
       <c r="K3481">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3482" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3482" t="s">
-        <v>2154</v>
+        <v>5027</v>
       </c>
       <c r="E3482" t="s">
-        <v>4891</v>
+        <v>5013</v>
       </c>
       <c r="K3482">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3483" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3483" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="E3483" t="s">
-        <v>4892</v>
+        <v>4891</v>
       </c>
       <c r="K3483">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3484" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3484" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="E3484" t="s">
-        <v>4893</v>
+        <v>4892</v>
       </c>
       <c r="K3484">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3485" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3485" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="E3485" t="s">
-        <v>4894</v>
+        <v>4893</v>
       </c>
       <c r="K3485">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3486" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3486" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="E3486" t="s">
-        <v>4895</v>
+        <v>4894</v>
       </c>
       <c r="K3486">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3487" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3487" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="E3487" t="s">
-        <v>4896</v>
+        <v>4895</v>
       </c>
       <c r="K3487">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3488" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3488" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="E3488" t="s">
-        <v>4897</v>
+        <v>4896</v>
       </c>
       <c r="K3488">
-        <v>150</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3489" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3489" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="E3489" t="s">
-        <v>4240</v>
+        <v>4897</v>
       </c>
       <c r="K3489">
-        <v>4</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3490" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3490" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="E3490" t="s">
-        <v>4445</v>
+        <v>4240</v>
       </c>
       <c r="K3490">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3491" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3491" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="E3491" t="s">
         <v>4445</v>
       </c>
       <c r="K3491">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3492" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3492" t="s">
-        <v>1709</v>
+        <v>2163</v>
       </c>
       <c r="E3492" t="s">
-        <v>4386</v>
+        <v>4445</v>
       </c>
       <c r="K3492">
-        <v>4.5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3493" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3493" t="s">
-        <v>2164</v>
+        <v>1709</v>
       </c>
       <c r="E3493" t="s">
-        <v>4898</v>
+        <v>4386</v>
       </c>
       <c r="K3493">
-        <v>8</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="3494" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3494" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="E3494" t="s">
-        <v>4349</v>
+        <v>4898</v>
       </c>
       <c r="K3494">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3495" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3495" t="s">
-        <v>1710</v>
+        <v>2165</v>
       </c>
       <c r="E3495" t="s">
-        <v>4899</v>
+        <v>4349</v>
       </c>
       <c r="K3495">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3496" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3496" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="E3496" t="s">
-        <v>4532</v>
+        <v>4899</v>
       </c>
       <c r="K3496">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3497" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3497" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="E3497" t="s">
         <v>4532</v>
       </c>
       <c r="K3497">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3498" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3498" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="E3498" t="s">
-        <v>4848</v>
+        <v>4532</v>
       </c>
       <c r="K3498">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3499" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3499" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="E3499" t="s">
-        <v>4532</v>
+        <v>4848</v>
       </c>
       <c r="K3499">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3500" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3500" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="E3500" t="s">
-        <v>4900</v>
+        <v>4532</v>
       </c>
       <c r="K3500">
-        <v>1.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3501" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3501" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="E3501" t="s">
-        <v>4483</v>
+        <v>4900</v>
       </c>
       <c r="K3501">
-        <v>12</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3502" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3502" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="E3502" t="s">
-        <v>4274</v>
+        <v>4483</v>
       </c>
       <c r="K3502">
         <v>12</v>
@@ -53996,593 +53999,593 @@
     </row>
     <row r="3503" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3503" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="E3503" t="s">
-        <v>4469</v>
+        <v>4274</v>
       </c>
       <c r="K3503">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3504" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3504" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="E3504" t="s">
-        <v>4644</v>
+        <v>4469</v>
       </c>
       <c r="K3504">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3505" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3505" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="E3505" t="s">
-        <v>4249</v>
+        <v>4644</v>
       </c>
       <c r="K3505">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3506" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3506" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="E3506" t="s">
-        <v>4901</v>
+        <v>4249</v>
       </c>
       <c r="K3506">
-        <v>1.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3507" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3507" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="E3507" t="s">
-        <v>4902</v>
+        <v>4901</v>
       </c>
       <c r="K3507">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3508" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3508" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="E3508" t="s">
         <v>4902</v>
       </c>
       <c r="K3508">
-        <v>4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3509" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3509" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="E3509" t="s">
-        <v>4473</v>
+        <v>4902</v>
       </c>
       <c r="K3509">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3510" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3510" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="E3510" t="s">
-        <v>4176</v>
+        <v>4473</v>
       </c>
       <c r="K3510">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3511" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3511" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="E3511" t="s">
         <v>4176</v>
       </c>
       <c r="K3511">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3512" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3512" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E3512" t="s">
         <v>4176</v>
       </c>
       <c r="K3512">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3513" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3513" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="E3513" t="s">
-        <v>4449</v>
+        <v>4176</v>
       </c>
       <c r="K3513">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3514" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3514" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="E3514" t="s">
-        <v>4604</v>
+        <v>4449</v>
       </c>
       <c r="K3514">
-        <v>85</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3515" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3515" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="E3515" t="s">
-        <v>4193</v>
+        <v>4604</v>
       </c>
       <c r="K3515">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3516" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3516" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="E3516" t="s">
-        <v>4903</v>
+        <v>4193</v>
       </c>
       <c r="K3516">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3517" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3517" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E3517" t="s">
-        <v>4904</v>
+        <v>4903</v>
       </c>
       <c r="K3517">
-        <v>4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3518" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3518" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="E3518" t="s">
-        <v>4420</v>
+        <v>4904</v>
       </c>
       <c r="K3518">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3519" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3519" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="E3519" t="s">
-        <v>4905</v>
+        <v>4420</v>
       </c>
       <c r="K3519">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3520" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3520" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="E3520" t="s">
-        <v>4441</v>
+        <v>4905</v>
       </c>
       <c r="K3520">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3521" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3521" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="E3521" t="s">
-        <v>4531</v>
+        <v>4441</v>
       </c>
       <c r="K3521">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3522" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3522" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="E3522" t="s">
         <v>4531</v>
       </c>
       <c r="K3522">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3523" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3523" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="E3523" t="s">
         <v>4531</v>
       </c>
       <c r="K3523">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3524" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3524" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="E3524" t="s">
-        <v>4504</v>
+        <v>4531</v>
       </c>
       <c r="K3524">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3525" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3525" t="s">
-        <v>2203</v>
+        <v>1739</v>
       </c>
       <c r="E3525" t="s">
-        <v>4153</v>
+        <v>4504</v>
       </c>
       <c r="K3525">
-        <v>180</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3526" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3526" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="E3526" t="s">
-        <v>4192</v>
+        <v>4153</v>
       </c>
       <c r="K3526">
-        <v>25</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3527" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3527" t="s">
-        <v>2259</v>
+        <v>2204</v>
       </c>
       <c r="E3527" t="s">
-        <v>4438</v>
+        <v>4192</v>
       </c>
       <c r="K3527">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3528" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3528" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="E3528" t="s">
-        <v>4906</v>
+        <v>4438</v>
       </c>
       <c r="K3528">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3529" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3529" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="E3529" t="s">
         <v>4906</v>
       </c>
       <c r="K3529">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3530" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3530" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="E3530" t="s">
-        <v>4441</v>
+        <v>4906</v>
       </c>
       <c r="K3530">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3531" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3531" t="s">
-        <v>1740</v>
+        <v>2262</v>
       </c>
       <c r="E3531" t="s">
-        <v>4907</v>
+        <v>4441</v>
       </c>
       <c r="K3531">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3532" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3532" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="E3532" t="s">
         <v>4907</v>
       </c>
       <c r="K3532">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3533" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3533" t="s">
-        <v>2263</v>
+        <v>1741</v>
       </c>
       <c r="E3533" t="s">
         <v>4907</v>
       </c>
       <c r="K3533">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3534" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3534" t="s">
-        <v>3701</v>
+        <v>2263</v>
       </c>
       <c r="E3534" t="s">
         <v>4907</v>
       </c>
       <c r="K3534">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3535" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3535" t="s">
-        <v>3702</v>
+        <v>3701</v>
       </c>
       <c r="E3535" t="s">
         <v>4907</v>
       </c>
       <c r="K3535">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3536" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3536" t="s">
-        <v>3703</v>
+        <v>3702</v>
       </c>
       <c r="E3536" t="s">
-        <v>4136</v>
+        <v>4907</v>
       </c>
       <c r="K3536">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3537" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3537" t="s">
-        <v>1742</v>
+        <v>3703</v>
       </c>
       <c r="E3537" t="s">
-        <v>4908</v>
+        <v>4136</v>
       </c>
       <c r="K3537">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3538" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3538" t="s">
-        <v>3704</v>
+        <v>1742</v>
       </c>
       <c r="E3538" t="s">
-        <v>4270</v>
+        <v>4908</v>
       </c>
       <c r="K3538">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3539" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3539" t="s">
-        <v>2264</v>
+        <v>3704</v>
       </c>
       <c r="E3539" t="s">
-        <v>4097</v>
+        <v>4270</v>
       </c>
       <c r="K3539">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3540" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3540" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="E3540" t="s">
-        <v>4435</v>
+        <v>4097</v>
       </c>
       <c r="K3540">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3541" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3541" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="E3541" t="s">
-        <v>4153</v>
+        <v>4435</v>
       </c>
       <c r="K3541">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3542" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3542" t="s">
-        <v>3705</v>
+        <v>2266</v>
       </c>
       <c r="E3542" t="s">
         <v>4153</v>
       </c>
       <c r="K3542">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3543" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3543" t="s">
-        <v>2267</v>
+        <v>3705</v>
       </c>
       <c r="E3543" t="s">
-        <v>4085</v>
+        <v>4153</v>
       </c>
       <c r="K3543">
-        <v>3.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3544" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3544" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="E3544" t="s">
-        <v>4430</v>
+        <v>4085</v>
       </c>
       <c r="K3544">
-        <v>5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3545" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3545" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="E3545" t="s">
-        <v>4463</v>
+        <v>4430</v>
       </c>
       <c r="K3545">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3546" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3546" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="E3546" t="s">
-        <v>4520</v>
+        <v>4463</v>
       </c>
       <c r="K3546">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3547" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3547" t="s">
-        <v>3706</v>
+        <v>2270</v>
       </c>
       <c r="E3547" t="s">
-        <v>4550</v>
+        <v>4520</v>
       </c>
       <c r="K3547">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3548" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3548" t="s">
-        <v>2271</v>
+        <v>3706</v>
       </c>
       <c r="E3548" t="s">
-        <v>4071</v>
+        <v>4550</v>
       </c>
       <c r="K3548">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3549" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3549" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="E3549" t="s">
-        <v>4909</v>
+        <v>4071</v>
       </c>
       <c r="K3549">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3550" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3550" t="s">
-        <v>3707</v>
+        <v>2272</v>
       </c>
       <c r="E3550" t="s">
-        <v>4379</v>
+        <v>4909</v>
       </c>
       <c r="K3550">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3551" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3551" t="s">
-        <v>1743</v>
+        <v>3707</v>
       </c>
       <c r="E3551" t="s">
-        <v>4449</v>
+        <v>4379</v>
       </c>
       <c r="K3551">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3552" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3552" t="s">
-        <v>3708</v>
+        <v>1743</v>
       </c>
       <c r="E3552" t="s">
         <v>4449</v>
       </c>
       <c r="K3552">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3553" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3553" t="s">
-        <v>3709</v>
+        <v>3708</v>
       </c>
       <c r="E3553" t="s">
-        <v>4482</v>
+        <v>4449</v>
       </c>
       <c r="K3553">
-        <v>3.5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3554" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3554" t="s">
-        <v>1744</v>
+        <v>3709</v>
       </c>
       <c r="E3554" t="s">
-        <v>4910</v>
+        <v>4482</v>
       </c>
       <c r="K3554">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3555" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3555" t="s">
-        <v>2205</v>
+        <v>1744</v>
       </c>
       <c r="E3555" t="s">
-        <v>4640</v>
+        <v>4910</v>
       </c>
       <c r="K3555">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3556" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3556" t="s">
-        <v>1746</v>
+        <v>2205</v>
       </c>
       <c r="E3556" t="s">
-        <v>4911</v>
+        <v>4640</v>
       </c>
       <c r="K3556">
         <v>50</v>
@@ -54590,164 +54593,164 @@
     </row>
     <row r="3557" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3557" t="s">
-        <v>3710</v>
+        <v>1746</v>
       </c>
       <c r="E3557" t="s">
-        <v>4153</v>
+        <v>4911</v>
       </c>
       <c r="K3557">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3558" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3558" t="s">
-        <v>2273</v>
+        <v>3710</v>
       </c>
       <c r="E3558" t="s">
         <v>4153</v>
       </c>
       <c r="K3558">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3559" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3559" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="E3559" t="s">
-        <v>4501</v>
+        <v>4153</v>
       </c>
       <c r="K3559">
-        <v>3.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3560" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3560" t="s">
-        <v>1747</v>
+        <v>2274</v>
       </c>
       <c r="E3560" t="s">
         <v>4501</v>
       </c>
       <c r="K3560">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3561" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3561" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="E3561" t="s">
-        <v>4531</v>
+        <v>4501</v>
       </c>
       <c r="K3561">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3562" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3562" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="E3562" t="s">
-        <v>4912</v>
+        <v>4531</v>
       </c>
       <c r="K3562">
-        <v>2.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3563" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3563" t="s">
-        <v>2275</v>
+        <v>1749</v>
       </c>
       <c r="E3563" t="s">
-        <v>4244</v>
+        <v>4912</v>
       </c>
       <c r="K3563">
-        <v>4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3564" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3564" t="s">
-        <v>3711</v>
+        <v>2275</v>
       </c>
       <c r="E3564" t="s">
-        <v>4386</v>
+        <v>4244</v>
       </c>
       <c r="K3564">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3565" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3565" t="s">
-        <v>2276</v>
+        <v>3711</v>
       </c>
       <c r="E3565" t="s">
-        <v>4913</v>
+        <v>4386</v>
       </c>
       <c r="K3565">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3566" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3566" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="E3566" t="s">
-        <v>4914</v>
+        <v>4913</v>
       </c>
       <c r="K3566">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3567" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3567" t="s">
-        <v>1750</v>
+        <v>2277</v>
       </c>
       <c r="E3567" t="s">
-        <v>4199</v>
+        <v>4914</v>
       </c>
       <c r="K3567">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3568" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3568" t="s">
-        <v>2278</v>
+        <v>1750</v>
       </c>
       <c r="E3568" t="s">
-        <v>4198</v>
+        <v>4199</v>
       </c>
       <c r="K3568">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3569" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3569" t="s">
-        <v>1751</v>
+        <v>2278</v>
       </c>
       <c r="E3569" t="s">
-        <v>4915</v>
+        <v>4198</v>
       </c>
       <c r="K3569">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3570" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3570" t="s">
-        <v>3712</v>
+        <v>1751</v>
       </c>
       <c r="E3570" t="s">
-        <v>4075</v>
+        <v>4915</v>
       </c>
       <c r="K3570">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3571" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3571" t="s">
-        <v>1752</v>
+        <v>3712</v>
       </c>
       <c r="E3571" t="s">
-        <v>4916</v>
+        <v>4075</v>
       </c>
       <c r="K3571">
         <v>10</v>
@@ -54755,351 +54758,351 @@
     </row>
     <row r="3572" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3572" t="s">
-        <v>2279</v>
+        <v>1752</v>
       </c>
       <c r="E3572" t="s">
-        <v>4668</v>
+        <v>4916</v>
       </c>
       <c r="K3572">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3573" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3573" t="s">
-        <v>1753</v>
+        <v>2279</v>
       </c>
       <c r="E3573" t="s">
         <v>4668</v>
       </c>
       <c r="K3573">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3574" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3574" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="E3574" t="s">
-        <v>4301</v>
+        <v>4668</v>
       </c>
       <c r="K3574">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3575" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3575" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="E3575" t="s">
-        <v>4635</v>
+        <v>4301</v>
       </c>
       <c r="K3575">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3576" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3576" t="s">
-        <v>2280</v>
+        <v>1755</v>
       </c>
       <c r="E3576" t="s">
-        <v>4572</v>
+        <v>4635</v>
       </c>
       <c r="K3576">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3577" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3577" t="s">
-        <v>1756</v>
+        <v>2280</v>
       </c>
       <c r="E3577" t="s">
-        <v>4376</v>
+        <v>4572</v>
       </c>
       <c r="K3577">
-        <v>8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3578" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3578" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="E3578" t="s">
-        <v>4210</v>
+        <v>4376</v>
       </c>
       <c r="K3578">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3579" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3579" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="E3579" t="s">
         <v>4210</v>
       </c>
       <c r="K3579">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3580" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3580" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="E3580" t="s">
-        <v>4120</v>
+        <v>4210</v>
       </c>
       <c r="K3580">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3581" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3581" t="s">
-        <v>2281</v>
+        <v>1759</v>
       </c>
       <c r="E3581" t="s">
-        <v>4264</v>
+        <v>4120</v>
       </c>
       <c r="K3581">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3582" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3582" t="s">
-        <v>1760</v>
+        <v>2281</v>
       </c>
       <c r="E3582" t="s">
         <v>4264</v>
       </c>
       <c r="K3582">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="3583" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3583" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="E3583" t="s">
-        <v>4256</v>
+        <v>4264</v>
       </c>
       <c r="K3583">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3584" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3584" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="E3584" t="s">
-        <v>4436</v>
+        <v>4256</v>
       </c>
       <c r="K3584">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3585" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3585" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="E3585" t="s">
-        <v>4667</v>
+        <v>4436</v>
       </c>
       <c r="K3585">
-        <v>68</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3586" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3586" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="E3586" t="s">
-        <v>4676</v>
+        <v>4667</v>
       </c>
       <c r="K3586">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3587" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3587" t="s">
-        <v>3713</v>
+        <v>1764</v>
       </c>
       <c r="E3587" t="s">
-        <v>4471</v>
+        <v>4676</v>
       </c>
       <c r="K3587">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3588" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3588" t="s">
-        <v>3714</v>
+        <v>3713</v>
       </c>
       <c r="E3588" t="s">
-        <v>4428</v>
+        <v>4471</v>
       </c>
       <c r="K3588">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3589" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3589" t="s">
-        <v>2282</v>
+        <v>3714</v>
       </c>
       <c r="E3589" t="s">
         <v>4428</v>
       </c>
       <c r="K3589">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3590" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3590" t="s">
-        <v>3715</v>
+        <v>2282</v>
       </c>
       <c r="E3590" t="s">
-        <v>4917</v>
+        <v>4428</v>
       </c>
       <c r="K3590">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3591" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3591" t="s">
-        <v>1786</v>
+        <v>3715</v>
       </c>
       <c r="E3591" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
       <c r="K3591">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3592" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3592" t="s">
-        <v>3716</v>
+        <v>1786</v>
       </c>
       <c r="E3592" t="s">
-        <v>4606</v>
+        <v>4918</v>
       </c>
       <c r="K3592">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3593" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3593" t="s">
-        <v>3717</v>
+        <v>3716</v>
       </c>
       <c r="E3593" t="s">
-        <v>4551</v>
+        <v>4606</v>
       </c>
       <c r="K3593">
-        <v>80</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3594" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3594" t="s">
-        <v>3718</v>
+        <v>3717</v>
       </c>
       <c r="E3594" t="s">
-        <v>4263</v>
+        <v>4551</v>
       </c>
       <c r="K3594">
-        <v>6.5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3595" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3595" t="s">
-        <v>3719</v>
+        <v>3718</v>
       </c>
       <c r="E3595" t="s">
-        <v>4902</v>
+        <v>4263</v>
       </c>
       <c r="K3595">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="3596" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3596" t="s">
-        <v>3720</v>
+        <v>3719</v>
       </c>
       <c r="E3596" t="s">
-        <v>4308</v>
+        <v>4902</v>
       </c>
       <c r="K3596">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="3597" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3597" t="s">
-        <v>3721</v>
+        <v>3720</v>
       </c>
       <c r="E3597" t="s">
-        <v>4390</v>
+        <v>4308</v>
       </c>
       <c r="K3597">
-        <v>5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3598" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3598" t="s">
-        <v>3722</v>
+        <v>3721</v>
       </c>
       <c r="E3598" t="s">
-        <v>4668</v>
+        <v>4390</v>
       </c>
       <c r="K3598">
-        <v>55</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3599" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3599" t="s">
-        <v>1859</v>
+        <v>3722</v>
       </c>
       <c r="E3599" t="s">
-        <v>4445</v>
+        <v>4668</v>
       </c>
       <c r="K3599">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3600" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3600" t="s">
-        <v>1868</v>
+        <v>1859</v>
       </c>
       <c r="E3600" t="s">
-        <v>4919</v>
+        <v>4445</v>
       </c>
       <c r="K3600">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3601" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3601" t="s">
-        <v>3723</v>
+        <v>1868</v>
       </c>
       <c r="E3601" t="s">
-        <v>4120</v>
+        <v>4919</v>
       </c>
       <c r="K3601">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3602" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3602" t="s">
-        <v>3724</v>
+        <v>3723</v>
       </c>
       <c r="E3602" t="s">
-        <v>4189</v>
+        <v>4120</v>
       </c>
       <c r="K3602">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3603" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3603" t="s">
-        <v>1894</v>
+        <v>3724</v>
       </c>
       <c r="E3603" t="s">
-        <v>4920</v>
+        <v>4189</v>
       </c>
       <c r="K3603">
         <v>2</v>
@@ -55107,32 +55110,32 @@
     </row>
     <row r="3604" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3604" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="E3604" t="s">
-        <v>4921</v>
+        <v>4920</v>
       </c>
       <c r="K3604">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3605" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3605" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="E3605" t="s">
-        <v>4390</v>
+        <v>4921</v>
       </c>
       <c r="K3605">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3606" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3606" t="s">
-        <v>3725</v>
+        <v>1896</v>
       </c>
       <c r="E3606" t="s">
-        <v>4922</v>
+        <v>4390</v>
       </c>
       <c r="K3606">
         <v>10</v>
@@ -55140,777 +55143,777 @@
     </row>
     <row r="3607" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3607" t="s">
-        <v>3726</v>
+        <v>3725</v>
       </c>
       <c r="E3607" t="s">
-        <v>4923</v>
+        <v>4922</v>
       </c>
       <c r="K3607">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3608" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3608" t="s">
-        <v>3727</v>
+        <v>3726</v>
       </c>
       <c r="E3608" t="s">
-        <v>4442</v>
+        <v>4923</v>
       </c>
       <c r="K3608">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3609" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3609" t="s">
-        <v>1897</v>
+        <v>3727</v>
       </c>
       <c r="E3609" t="s">
-        <v>4455</v>
+        <v>4442</v>
       </c>
       <c r="K3609">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3610" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3610" t="s">
-        <v>2283</v>
+        <v>1897</v>
       </c>
       <c r="E3610" t="s">
-        <v>4274</v>
+        <v>4455</v>
       </c>
       <c r="K3610">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3611" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3611" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="E3611" t="s">
         <v>4274</v>
       </c>
       <c r="K3611">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3612" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3612" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="E3612" t="s">
-        <v>4449</v>
+        <v>4274</v>
       </c>
       <c r="K3612">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3613" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3613" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="E3613" t="s">
-        <v>4531</v>
+        <v>4449</v>
       </c>
       <c r="K3613">
-        <v>8.99</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3614" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3614" t="s">
-        <v>1925</v>
+        <v>2286</v>
       </c>
       <c r="E3614" t="s">
-        <v>4390</v>
+        <v>4531</v>
       </c>
       <c r="K3614">
-        <v>6</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="3615" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3615" t="s">
-        <v>2287</v>
+        <v>1925</v>
       </c>
       <c r="E3615" t="s">
-        <v>4386</v>
+        <v>4390</v>
       </c>
       <c r="K3615">
-        <v>5.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3616" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3616" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="E3616" t="s">
-        <v>4471</v>
+        <v>4386</v>
       </c>
       <c r="K3616">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="3617" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3617" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="E3617" t="s">
-        <v>4924</v>
+        <v>4471</v>
       </c>
       <c r="K3617">
-        <v>20</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="3618" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3618" t="s">
-        <v>1965</v>
+        <v>2289</v>
       </c>
       <c r="E3618" t="s">
-        <v>4871</v>
+        <v>4924</v>
       </c>
       <c r="K3618">
-        <v>12.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3619" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3619" t="s">
-        <v>1970</v>
+        <v>1965</v>
       </c>
       <c r="E3619" t="s">
-        <v>4192</v>
+        <v>4871</v>
       </c>
       <c r="K3619">
-        <v>24.9</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="3620" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3620" t="s">
-        <v>2290</v>
+        <v>1970</v>
       </c>
       <c r="E3620" t="s">
         <v>4192</v>
       </c>
       <c r="K3620">
-        <v>50</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="3621" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3621" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="E3621" t="s">
         <v>4192</v>
       </c>
       <c r="K3621">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3622" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3622" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="E3622" t="s">
-        <v>4526</v>
+        <v>4192</v>
       </c>
       <c r="K3622">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3623" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3623" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="E3623" t="s">
-        <v>4246</v>
+        <v>4526</v>
       </c>
       <c r="K3623">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3624" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3624" t="s">
-        <v>1994</v>
+        <v>2293</v>
       </c>
       <c r="E3624" t="s">
-        <v>4902</v>
+        <v>4246</v>
       </c>
       <c r="K3624">
-        <v>50</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3625" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3625" t="s">
-        <v>2294</v>
+        <v>1994</v>
       </c>
       <c r="E3625" t="s">
-        <v>4907</v>
+        <v>4902</v>
       </c>
       <c r="K3625">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3626" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3626" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="E3626" t="s">
-        <v>4871</v>
+        <v>4907</v>
       </c>
       <c r="K3626">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3627" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3627" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="E3627" t="s">
         <v>4871</v>
       </c>
       <c r="K3627">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3628" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3628" t="s">
-        <v>2012</v>
+        <v>2296</v>
       </c>
       <c r="E3628" t="s">
         <v>4871</v>
       </c>
       <c r="K3628">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3629" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3629" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="E3629" t="s">
         <v>4871</v>
       </c>
       <c r="K3629">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3630" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3630" t="s">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="E3630" t="s">
-        <v>4386</v>
+        <v>4871</v>
       </c>
       <c r="K3630">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3631" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3631" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E3631" t="s">
-        <v>4925</v>
+        <v>4386</v>
       </c>
       <c r="K3631">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3632" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3632" t="s">
-        <v>2027</v>
+        <v>2018</v>
       </c>
       <c r="E3632" t="s">
-        <v>4166</v>
+        <v>4925</v>
       </c>
       <c r="K3632">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3633" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3633" t="s">
-        <v>2297</v>
+        <v>2027</v>
       </c>
       <c r="E3633" t="s">
-        <v>4501</v>
+        <v>4166</v>
       </c>
       <c r="K3633">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3634" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3634" t="s">
-        <v>2028</v>
+        <v>2297</v>
       </c>
       <c r="E3634" t="s">
-        <v>4913</v>
+        <v>4501</v>
       </c>
       <c r="K3634">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3635" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3635" t="s">
-        <v>2033</v>
+        <v>2028</v>
       </c>
       <c r="E3635" t="s">
-        <v>4526</v>
+        <v>4913</v>
       </c>
       <c r="K3635">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3636" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3636" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="E3636" t="s">
-        <v>4236</v>
+        <v>4526</v>
       </c>
       <c r="K3636">
-        <v>140</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3637" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3637" t="s">
-        <v>2298</v>
+        <v>2034</v>
       </c>
       <c r="E3637" t="s">
-        <v>4606</v>
+        <v>4236</v>
       </c>
       <c r="K3637">
-        <v>22</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3638" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3638" t="s">
-        <v>2048</v>
+        <v>2298</v>
       </c>
       <c r="E3638" t="s">
-        <v>4223</v>
+        <v>4606</v>
       </c>
       <c r="K3638">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3639" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3639" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="E3639" t="s">
-        <v>4166</v>
+        <v>4223</v>
       </c>
       <c r="K3639">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3640" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3640" t="s">
-        <v>2053</v>
+        <v>2050</v>
       </c>
       <c r="E3640" t="s">
-        <v>4386</v>
+        <v>4166</v>
       </c>
       <c r="K3640">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3641" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3641" t="s">
-        <v>2058</v>
+        <v>2053</v>
       </c>
       <c r="E3641" t="s">
-        <v>4236</v>
+        <v>4386</v>
       </c>
       <c r="K3641">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3642" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3642" t="s">
-        <v>2299</v>
+        <v>2058</v>
       </c>
       <c r="E3642" t="s">
-        <v>4902</v>
+        <v>4236</v>
       </c>
       <c r="K3642">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3643" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3643" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="E3643" t="s">
-        <v>4438</v>
+        <v>4902</v>
       </c>
       <c r="K3643">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3644" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3644" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="E3644" t="s">
-        <v>4455</v>
+        <v>4438</v>
       </c>
       <c r="K3644">
-        <v>95</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3645" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3645" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="E3645" t="s">
         <v>4455</v>
       </c>
       <c r="K3645">
-        <v>60</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3646" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3646" t="s">
-        <v>2062</v>
+        <v>2302</v>
       </c>
       <c r="E3646" t="s">
-        <v>4097</v>
+        <v>4455</v>
       </c>
       <c r="K3646">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3647" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3647" t="s">
-        <v>2065</v>
+        <v>2062</v>
       </c>
       <c r="E3647" t="s">
-        <v>4264</v>
+        <v>4097</v>
       </c>
       <c r="K3647">
-        <v>5.5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3648" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3648" t="s">
-        <v>2071</v>
+        <v>2065</v>
       </c>
       <c r="E3648" t="s">
-        <v>4572</v>
+        <v>4264</v>
       </c>
       <c r="K3648">
-        <v>15</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="3649" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3649" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="E3649" t="s">
         <v>4572</v>
       </c>
       <c r="K3649">
-        <v>1.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3650" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3650" t="s">
-        <v>2303</v>
+        <v>2072</v>
       </c>
       <c r="E3650" t="s">
-        <v>4926</v>
+        <v>4572</v>
       </c>
       <c r="K3650">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3651" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3651" t="s">
-        <v>2206</v>
+        <v>2303</v>
       </c>
       <c r="E3651" t="s">
-        <v>4390</v>
+        <v>4926</v>
       </c>
       <c r="K3651">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3652" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3652" t="s">
-        <v>2080</v>
+        <v>2206</v>
       </c>
       <c r="E3652" t="s">
         <v>4390</v>
       </c>
       <c r="K3652">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3653" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3653" t="s">
-        <v>2304</v>
+        <v>2080</v>
       </c>
       <c r="E3653" t="s">
-        <v>4097</v>
+        <v>4390</v>
       </c>
       <c r="K3653">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3654" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3654" t="s">
-        <v>2081</v>
+        <v>2304</v>
       </c>
       <c r="E3654" t="s">
-        <v>4379</v>
+        <v>4097</v>
       </c>
       <c r="K3654">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3655" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3655" t="s">
-        <v>2091</v>
+        <v>2081</v>
       </c>
       <c r="E3655" t="s">
-        <v>4445</v>
+        <v>4379</v>
       </c>
       <c r="K3655">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3656" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3656" t="s">
-        <v>2305</v>
+        <v>2091</v>
       </c>
       <c r="E3656" t="s">
-        <v>4902</v>
+        <v>4445</v>
       </c>
       <c r="K3656">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3657" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3657" t="s">
-        <v>2127</v>
+        <v>2305</v>
       </c>
       <c r="E3657" t="s">
-        <v>4075</v>
+        <v>4902</v>
       </c>
       <c r="K3657">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3658" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3658" t="s">
-        <v>2306</v>
+        <v>2127</v>
       </c>
       <c r="E3658" t="s">
-        <v>4067</v>
+        <v>4075</v>
       </c>
       <c r="K3658">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3659" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3659" t="s">
-        <v>2131</v>
+        <v>2306</v>
       </c>
       <c r="E3659" t="s">
-        <v>4871</v>
+        <v>4067</v>
       </c>
       <c r="K3659">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3660" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3660" t="s">
-        <v>2307</v>
+        <v>2131</v>
       </c>
       <c r="E3660" t="s">
-        <v>4223</v>
+        <v>4871</v>
       </c>
       <c r="K3660">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3661" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3661" t="s">
-        <v>2144</v>
+        <v>2307</v>
       </c>
       <c r="E3661" t="s">
-        <v>4097</v>
+        <v>4223</v>
       </c>
       <c r="K3661">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3662" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3662" t="s">
-        <v>2167</v>
+        <v>2144</v>
       </c>
       <c r="E3662" t="s">
-        <v>4572</v>
+        <v>4097</v>
       </c>
       <c r="K3662">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3663" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3663" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="E3663" t="s">
-        <v>4927</v>
+        <v>4572</v>
       </c>
       <c r="K3663">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3664" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3664" t="s">
-        <v>2178</v>
+        <v>2169</v>
       </c>
       <c r="E3664" t="s">
-        <v>4871</v>
+        <v>4927</v>
       </c>
       <c r="K3664">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3665" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3665" t="s">
-        <v>2308</v>
+        <v>2178</v>
       </c>
       <c r="E3665" t="s">
-        <v>4192</v>
+        <v>4871</v>
       </c>
       <c r="K3665">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3666" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3666" t="s">
-        <v>2207</v>
+        <v>2308</v>
       </c>
       <c r="E3666" t="s">
-        <v>4452</v>
+        <v>4192</v>
       </c>
       <c r="K3666">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3667" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3667" t="s">
-        <v>2309</v>
+        <v>2207</v>
       </c>
       <c r="E3667" t="s">
         <v>4452</v>
       </c>
       <c r="K3667">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3668" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3668" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="E3668" t="s">
         <v>4452</v>
       </c>
       <c r="K3668">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3669" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3669" t="s">
-        <v>3728</v>
+        <v>2310</v>
       </c>
       <c r="E3669" t="s">
         <v>4452</v>
       </c>
       <c r="K3669">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3670" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3670" t="s">
-        <v>3729</v>
+        <v>3728</v>
       </c>
       <c r="E3670" t="s">
-        <v>4510</v>
+        <v>4452</v>
       </c>
       <c r="K3670">
-        <v>58</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3671" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3671" t="s">
-        <v>2311</v>
+        <v>3729</v>
       </c>
       <c r="E3671" t="s">
-        <v>4491</v>
+        <v>4510</v>
       </c>
       <c r="K3671">
-        <v>7</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3672" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3672" t="s">
-        <v>3730</v>
+        <v>2311</v>
       </c>
       <c r="E3672" t="s">
-        <v>4447</v>
+        <v>4491</v>
       </c>
       <c r="K3672">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3673" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3673" t="s">
-        <v>3731</v>
+        <v>3730</v>
       </c>
       <c r="E3673" t="s">
-        <v>4074</v>
+        <v>4447</v>
       </c>
       <c r="K3673">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3674" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3674" t="s">
-        <v>3732</v>
+        <v>3731</v>
       </c>
       <c r="E3674" t="s">
-        <v>4446</v>
+        <v>4074</v>
       </c>
       <c r="K3674">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3675" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3675" t="s">
-        <v>3733</v>
+        <v>3732</v>
       </c>
       <c r="E3675" t="s">
         <v>4446</v>
       </c>
       <c r="K3675">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3676" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3676" t="s">
-        <v>3734</v>
+        <v>3733</v>
       </c>
       <c r="E3676" t="s">
         <v>4446</v>
       </c>
       <c r="K3676">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3677" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3677" t="s">
-        <v>3735</v>
+        <v>3734</v>
       </c>
       <c r="E3677" t="s">
         <v>4446</v>
@@ -55921,307 +55924,307 @@
     </row>
     <row r="3678" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3678" t="s">
-        <v>3736</v>
+        <v>3735</v>
       </c>
       <c r="E3678" t="s">
-        <v>4456</v>
+        <v>4446</v>
       </c>
       <c r="K3678">
-        <v>5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3679" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3679" t="s">
-        <v>3737</v>
+        <v>3736</v>
       </c>
       <c r="E3679" t="s">
-        <v>4452</v>
+        <v>4456</v>
       </c>
       <c r="K3679">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3680" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3680" t="s">
-        <v>3738</v>
+        <v>3737</v>
       </c>
       <c r="E3680" t="s">
-        <v>4928</v>
+        <v>4452</v>
       </c>
       <c r="K3680">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3681" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3681" t="s">
-        <v>3739</v>
+        <v>3738</v>
       </c>
       <c r="E3681" t="s">
-        <v>4577</v>
+        <v>4928</v>
       </c>
       <c r="K3681">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3682" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3682" t="s">
-        <v>3740</v>
+        <v>3739</v>
       </c>
       <c r="E3682" t="s">
-        <v>4446</v>
+        <v>4577</v>
       </c>
       <c r="K3682">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3683" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3683" t="s">
-        <v>3741</v>
+        <v>3740</v>
       </c>
       <c r="E3683" t="s">
-        <v>4929</v>
+        <v>4446</v>
       </c>
       <c r="K3683">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3684" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3684" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="E3684" t="s">
-        <v>4899</v>
+        <v>4929</v>
       </c>
       <c r="K3684">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3685" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3685" t="s">
-        <v>3743</v>
+        <v>3742</v>
       </c>
       <c r="E3685" t="s">
-        <v>4443</v>
+        <v>4899</v>
       </c>
       <c r="K3685">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3686" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3686" t="s">
-        <v>3744</v>
+        <v>3743</v>
       </c>
       <c r="E3686" t="s">
-        <v>4446</v>
+        <v>4443</v>
       </c>
       <c r="K3686">
-        <v>3.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3687" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3687" t="s">
-        <v>3745</v>
+        <v>3744</v>
       </c>
       <c r="E3687" t="s">
-        <v>4853</v>
+        <v>4446</v>
       </c>
       <c r="K3687">
-        <v>9</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3688" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3688" t="s">
-        <v>3746</v>
+        <v>3745</v>
       </c>
       <c r="E3688" t="s">
         <v>4853</v>
       </c>
       <c r="K3688">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3689" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3689" t="s">
-        <v>3747</v>
+        <v>3746</v>
       </c>
       <c r="E3689" t="s">
-        <v>4443</v>
+        <v>4853</v>
       </c>
       <c r="K3689">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3690" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3690" t="s">
-        <v>3748</v>
+        <v>3747</v>
       </c>
       <c r="E3690" t="s">
         <v>4443</v>
       </c>
       <c r="K3690">
-        <v>3.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3691" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3691" t="s">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="E3691" t="s">
-        <v>4446</v>
+        <v>4443</v>
       </c>
       <c r="K3691">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3692" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3692" t="s">
-        <v>3750</v>
+        <v>3749</v>
       </c>
       <c r="E3692" t="s">
-        <v>4443</v>
+        <v>4446</v>
       </c>
       <c r="K3692">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3693" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3693" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="E3693" t="s">
-        <v>4930</v>
+        <v>4443</v>
       </c>
       <c r="K3693">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3694" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3694" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
       <c r="E3694" t="s">
-        <v>4455</v>
+        <v>4930</v>
       </c>
       <c r="K3694">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3695" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3695" t="s">
-        <v>3753</v>
+        <v>3752</v>
       </c>
       <c r="E3695" t="s">
-        <v>4463</v>
+        <v>4455</v>
       </c>
       <c r="K3695">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3696" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3696" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
       <c r="E3696" t="s">
         <v>4463</v>
       </c>
       <c r="K3696">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3697" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3697" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="E3697" t="s">
         <v>4463</v>
       </c>
       <c r="K3697">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3698" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3698" t="s">
-        <v>3756</v>
+        <v>3755</v>
       </c>
       <c r="E3698" t="s">
-        <v>4931</v>
+        <v>4463</v>
       </c>
       <c r="K3698">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3699" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3699" t="s">
-        <v>3757</v>
+        <v>3756</v>
       </c>
       <c r="E3699" t="s">
-        <v>4606</v>
+        <v>4931</v>
       </c>
       <c r="K3699">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3700" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3700" t="s">
-        <v>3758</v>
+        <v>3757</v>
       </c>
       <c r="E3700" t="s">
-        <v>4482</v>
+        <v>4606</v>
       </c>
       <c r="K3700">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3701" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3701" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="E3701" t="s">
-        <v>4932</v>
+        <v>4482</v>
       </c>
       <c r="K3701">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3702" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3702" t="s">
-        <v>3760</v>
+        <v>3759</v>
       </c>
       <c r="E3702" t="s">
-        <v>4446</v>
+        <v>4932</v>
       </c>
       <c r="K3702">
-        <v>3.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3703" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3703" t="s">
-        <v>3761</v>
+        <v>3760</v>
       </c>
       <c r="E3703" t="s">
-        <v>4933</v>
+        <v>4446</v>
       </c>
       <c r="K3703">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3704" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3704" t="s">
-        <v>3762</v>
+        <v>3761</v>
       </c>
       <c r="E3704" t="s">
-        <v>4934</v>
+        <v>4933</v>
       </c>
       <c r="K3704">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3705" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3705" t="s">
-        <v>3763</v>
+        <v>3762</v>
       </c>
       <c r="E3705" t="s">
-        <v>4935</v>
+        <v>4934</v>
       </c>
       <c r="K3705">
         <v>3.5</v>
@@ -56229,373 +56232,373 @@
     </row>
     <row r="3706" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3706" t="s">
-        <v>3764</v>
+        <v>3763</v>
       </c>
       <c r="E3706" t="s">
-        <v>4446</v>
+        <v>4935</v>
       </c>
       <c r="K3706">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3707" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3707" t="s">
-        <v>3765</v>
+        <v>3764</v>
       </c>
       <c r="E3707" t="s">
-        <v>4936</v>
+        <v>4446</v>
       </c>
       <c r="K3707">
-        <v>15</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3708" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3708" t="s">
-        <v>3766</v>
+        <v>3765</v>
       </c>
       <c r="E3708" t="s">
-        <v>4937</v>
+        <v>4936</v>
       </c>
       <c r="K3708">
-        <v>3.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3709" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3709" t="s">
-        <v>3767</v>
+        <v>3766</v>
       </c>
       <c r="E3709" t="s">
-        <v>4933</v>
+        <v>4937</v>
       </c>
       <c r="K3709">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3710" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3710" t="s">
-        <v>3768</v>
+        <v>3767</v>
       </c>
       <c r="E3710" t="s">
-        <v>4446</v>
+        <v>4933</v>
       </c>
       <c r="K3710">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3711" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3711" t="s">
-        <v>3769</v>
+        <v>3768</v>
       </c>
       <c r="E3711" t="s">
         <v>4446</v>
       </c>
       <c r="K3711">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3712" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3712" t="s">
-        <v>3770</v>
+        <v>3769</v>
       </c>
       <c r="E3712" t="s">
-        <v>4938</v>
+        <v>4446</v>
       </c>
       <c r="K3712">
-        <v>16</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="3713" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3713" t="s">
-        <v>3771</v>
+        <v>3770</v>
       </c>
       <c r="E3713" t="s">
-        <v>4939</v>
+        <v>4938</v>
       </c>
       <c r="K3713">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3714" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3714" t="s">
-        <v>3772</v>
+        <v>3771</v>
       </c>
       <c r="E3714" t="s">
-        <v>4608</v>
+        <v>4939</v>
       </c>
       <c r="K3714">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3715" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3715" t="s">
-        <v>3773</v>
+        <v>3772</v>
       </c>
       <c r="E3715" t="s">
         <v>4608</v>
       </c>
       <c r="K3715">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3716" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3716" t="s">
-        <v>3774</v>
+        <v>3773</v>
       </c>
       <c r="E3716" t="s">
-        <v>4569</v>
+        <v>4608</v>
       </c>
       <c r="K3716">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3717" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3717" t="s">
-        <v>3775</v>
+        <v>3774</v>
       </c>
       <c r="E3717" t="s">
-        <v>4577</v>
+        <v>4569</v>
       </c>
       <c r="K3717">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3718" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3718" t="s">
-        <v>3776</v>
+        <v>3775</v>
       </c>
       <c r="E3718" t="s">
         <v>4577</v>
       </c>
       <c r="K3718">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3719" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3719" t="s">
-        <v>3777</v>
+        <v>3776</v>
       </c>
       <c r="E3719" t="s">
         <v>4577</v>
       </c>
       <c r="K3719">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3720" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3720" t="s">
-        <v>3778</v>
+        <v>3777</v>
       </c>
       <c r="E3720" t="s">
-        <v>4453</v>
+        <v>4577</v>
       </c>
       <c r="K3720">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3721" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3721" t="s">
-        <v>3779</v>
+        <v>3778</v>
       </c>
       <c r="E3721" t="s">
         <v>4453</v>
       </c>
       <c r="K3721">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3722" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3722" t="s">
-        <v>3780</v>
+        <v>3779</v>
       </c>
       <c r="E3722" t="s">
-        <v>4482</v>
+        <v>4453</v>
       </c>
       <c r="K3722">
-        <v>2.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3723" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3723" t="s">
-        <v>3781</v>
+        <v>3780</v>
       </c>
       <c r="E3723" t="s">
-        <v>4940</v>
+        <v>4482</v>
       </c>
       <c r="K3723">
-        <v>12</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3724" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3724" t="s">
-        <v>3782</v>
+        <v>3781</v>
       </c>
       <c r="E3724" t="s">
-        <v>4941</v>
+        <v>4940</v>
       </c>
       <c r="K3724">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3725" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3725" t="s">
-        <v>3783</v>
+        <v>3782</v>
       </c>
       <c r="E3725" t="s">
-        <v>4942</v>
+        <v>4941</v>
       </c>
       <c r="K3725">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3726" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3726" t="s">
-        <v>3784</v>
+        <v>3783</v>
       </c>
       <c r="E3726" t="s">
-        <v>4943</v>
+        <v>4942</v>
       </c>
       <c r="K3726">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3727" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3727" t="s">
-        <v>3785</v>
+        <v>3784</v>
       </c>
       <c r="E3727" t="s">
-        <v>4510</v>
+        <v>4943</v>
       </c>
       <c r="K3727">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3728" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3728" t="s">
-        <v>3786</v>
+        <v>3785</v>
       </c>
       <c r="E3728" t="s">
-        <v>4944</v>
+        <v>4510</v>
       </c>
       <c r="K3728">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3729" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3729" t="s">
-        <v>3787</v>
+        <v>3786</v>
       </c>
       <c r="E3729" t="s">
-        <v>4945</v>
+        <v>4944</v>
       </c>
       <c r="K3729">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3730" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3730" t="s">
-        <v>3788</v>
+        <v>3787</v>
       </c>
       <c r="E3730" t="s">
-        <v>4449</v>
+        <v>4945</v>
       </c>
       <c r="K3730">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3731" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3731" t="s">
-        <v>3789</v>
+        <v>3788</v>
       </c>
       <c r="E3731" t="s">
-        <v>4895</v>
+        <v>4449</v>
       </c>
       <c r="K3731">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3732" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3732" t="s">
-        <v>3790</v>
+        <v>3789</v>
       </c>
       <c r="E3732" t="s">
-        <v>4153</v>
+        <v>4895</v>
       </c>
       <c r="K3732">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3733" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3733" t="s">
-        <v>3791</v>
+        <v>3790</v>
       </c>
       <c r="E3733" t="s">
-        <v>4946</v>
+        <v>4153</v>
       </c>
       <c r="K3733">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3734" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3734" t="s">
-        <v>3792</v>
+        <v>3791</v>
       </c>
       <c r="E3734" t="s">
-        <v>4192</v>
+        <v>4946</v>
       </c>
       <c r="K3734">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3735" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3735" t="s">
-        <v>3793</v>
+        <v>3792</v>
       </c>
       <c r="E3735" t="s">
-        <v>4440</v>
+        <v>4192</v>
       </c>
       <c r="K3735">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3736" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3736" t="s">
-        <v>3794</v>
+        <v>3793</v>
       </c>
       <c r="E3736" t="s">
-        <v>4947</v>
+        <v>4440</v>
       </c>
       <c r="K3736">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3737" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3737" t="s">
-        <v>3795</v>
+        <v>3794</v>
       </c>
       <c r="E3737" t="s">
-        <v>4948</v>
+        <v>4947</v>
       </c>
       <c r="K3737">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3738" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3738" t="s">
-        <v>3796</v>
+        <v>3795</v>
       </c>
       <c r="E3738" t="s">
-        <v>4440</v>
+        <v>4948</v>
       </c>
       <c r="K3738">
-        <v>10</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3739" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3739" t="s">
-        <v>3797</v>
+        <v>3796</v>
       </c>
       <c r="E3739" t="s">
-        <v>4478</v>
+        <v>4440</v>
       </c>
       <c r="K3739">
         <v>10</v>
@@ -56603,139 +56606,139 @@
     </row>
     <row r="3740" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3740" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="E3740" t="s">
         <v>4478</v>
       </c>
       <c r="K3740">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3741" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3741" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
       <c r="E3741" t="s">
-        <v>4869</v>
+        <v>4478</v>
       </c>
       <c r="K3741">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3742" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3742" t="s">
-        <v>3800</v>
+        <v>3799</v>
       </c>
       <c r="E3742" t="s">
-        <v>4457</v>
+        <v>4869</v>
       </c>
       <c r="K3742">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3743" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3743" t="s">
-        <v>3801</v>
+        <v>3800</v>
       </c>
       <c r="E3743" t="s">
         <v>4457</v>
       </c>
       <c r="K3743">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3744" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3744" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="E3744" t="s">
-        <v>4441</v>
+        <v>4457</v>
       </c>
       <c r="K3744">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3745" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3745" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="E3745" t="s">
-        <v>4949</v>
+        <v>4441</v>
       </c>
       <c r="K3745">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3746" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3746" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
       <c r="E3746" t="s">
-        <v>4950</v>
+        <v>4949</v>
       </c>
       <c r="K3746">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3747" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3747" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="E3747" t="s">
-        <v>4620</v>
+        <v>4950</v>
       </c>
       <c r="K3747">
-        <v>55</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3748" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3748" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="E3748" t="s">
-        <v>4441</v>
+        <v>4620</v>
       </c>
       <c r="K3748">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3749" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3749" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="E3749" t="s">
         <v>4441</v>
       </c>
       <c r="K3749">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3750" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3750" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
       <c r="E3750" t="s">
-        <v>4444</v>
+        <v>4441</v>
       </c>
       <c r="K3750">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3751" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3751" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
       <c r="E3751" t="s">
-        <v>4951</v>
+        <v>4444</v>
       </c>
       <c r="K3751">
-        <v>1.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3752" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3752" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="E3752" t="s">
         <v>4951</v>
@@ -56746,109 +56749,109 @@
     </row>
     <row r="3753" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3753" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="E3753" t="s">
-        <v>4463</v>
+        <v>4951</v>
       </c>
       <c r="K3753">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3754" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3754" t="s">
-        <v>3812</v>
+        <v>3811</v>
       </c>
       <c r="E3754" t="s">
-        <v>4952</v>
+        <v>4463</v>
       </c>
       <c r="K3754">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3755" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3755" t="s">
-        <v>3813</v>
+        <v>3812</v>
       </c>
       <c r="E3755" t="s">
-        <v>4953</v>
+        <v>4952</v>
       </c>
       <c r="K3755">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3756" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3756" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
       <c r="E3756" t="s">
-        <v>4954</v>
+        <v>4953</v>
       </c>
       <c r="K3756">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3757" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3757" t="s">
-        <v>3815</v>
+        <v>3814</v>
       </c>
       <c r="E3757" t="s">
-        <v>4359</v>
+        <v>4954</v>
       </c>
       <c r="K3757">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3758" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3758" t="s">
-        <v>3816</v>
+        <v>3815</v>
       </c>
       <c r="E3758" t="s">
-        <v>4473</v>
+        <v>4359</v>
       </c>
       <c r="K3758">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3759" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3759" t="s">
-        <v>3817</v>
+        <v>3816</v>
       </c>
       <c r="E3759" t="s">
         <v>4473</v>
       </c>
       <c r="K3759">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3760" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3760" t="s">
-        <v>3818</v>
+        <v>3817</v>
       </c>
       <c r="E3760" t="s">
-        <v>4930</v>
+        <v>4473</v>
       </c>
       <c r="K3760">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3761" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3761" t="s">
-        <v>3819</v>
+        <v>3818</v>
       </c>
       <c r="E3761" t="s">
-        <v>4955</v>
+        <v>4930</v>
       </c>
       <c r="K3761">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3762" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3762" t="s">
-        <v>3820</v>
+        <v>3819</v>
       </c>
       <c r="E3762" t="s">
-        <v>4446</v>
+        <v>4955</v>
       </c>
       <c r="K3762">
         <v>35</v>
@@ -56856,32 +56859,32 @@
     </row>
     <row r="3763" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3763" t="s">
-        <v>3821</v>
+        <v>3820</v>
       </c>
       <c r="E3763" t="s">
-        <v>4903</v>
+        <v>4446</v>
       </c>
       <c r="K3763">
-        <v>2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3764" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3764" t="s">
-        <v>3822</v>
+        <v>3821</v>
       </c>
       <c r="E3764" t="s">
         <v>4903</v>
       </c>
       <c r="K3764">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3765" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3765" t="s">
-        <v>3823</v>
+        <v>3822</v>
       </c>
       <c r="E3765" t="s">
-        <v>4074</v>
+        <v>4903</v>
       </c>
       <c r="K3765">
         <v>3</v>
@@ -56889,175 +56892,175 @@
     </row>
     <row r="3766" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3766" t="s">
-        <v>3824</v>
+        <v>3823</v>
       </c>
       <c r="E3766" t="s">
-        <v>4937</v>
+        <v>4074</v>
       </c>
       <c r="K3766">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3767" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3767" t="s">
-        <v>3825</v>
+        <v>3824</v>
       </c>
       <c r="E3767" t="s">
-        <v>4956</v>
+        <v>4937</v>
       </c>
       <c r="K3767">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3768" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3768" t="s">
-        <v>3826</v>
+        <v>3825</v>
       </c>
       <c r="E3768" t="s">
-        <v>4937</v>
+        <v>4956</v>
       </c>
       <c r="K3768">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3769" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3769" t="s">
-        <v>3827</v>
+        <v>3826</v>
       </c>
       <c r="E3769" t="s">
-        <v>4458</v>
+        <v>4937</v>
       </c>
       <c r="K3769">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3770" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3770" t="s">
-        <v>3828</v>
+        <v>3827</v>
       </c>
       <c r="E3770" t="s">
-        <v>4443</v>
+        <v>4458</v>
       </c>
       <c r="K3770">
-        <v>2.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3771" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3771" t="s">
-        <v>3829</v>
+        <v>3828</v>
       </c>
       <c r="E3771" t="s">
-        <v>4899</v>
+        <v>4443</v>
       </c>
       <c r="K3771">
-        <v>4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3772" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3772" t="s">
-        <v>3830</v>
+        <v>3829</v>
       </c>
       <c r="E3772" t="s">
-        <v>4510</v>
+        <v>4899</v>
       </c>
       <c r="K3772">
-        <v>45</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3773" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3773" t="s">
-        <v>3831</v>
+        <v>3830</v>
       </c>
       <c r="E3773" t="s">
-        <v>4564</v>
+        <v>4510</v>
       </c>
       <c r="K3773">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3774" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3774" t="s">
-        <v>3832</v>
+        <v>3831</v>
       </c>
       <c r="E3774" t="s">
-        <v>4620</v>
+        <v>4564</v>
       </c>
       <c r="K3774">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3775" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3775" t="s">
-        <v>3833</v>
+        <v>3832</v>
       </c>
       <c r="E3775" t="s">
-        <v>4516</v>
+        <v>4620</v>
       </c>
       <c r="K3775">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3776" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3776" t="s">
-        <v>3834</v>
+        <v>3833</v>
       </c>
       <c r="E3776" t="s">
-        <v>4473</v>
+        <v>4516</v>
       </c>
       <c r="K3776">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3777" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3777" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="E3777" t="s">
-        <v>4441</v>
+        <v>4473</v>
       </c>
       <c r="K3777">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3778" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3778" t="s">
-        <v>3836</v>
+        <v>3835</v>
       </c>
       <c r="E3778" t="s">
-        <v>4474</v>
+        <v>4441</v>
       </c>
       <c r="K3778">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3779" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3779" t="s">
-        <v>3837</v>
+        <v>3836</v>
       </c>
       <c r="E3779" t="s">
-        <v>4565</v>
+        <v>4474</v>
       </c>
       <c r="K3779">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3780" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3780" t="s">
-        <v>3838</v>
+        <v>3837</v>
       </c>
       <c r="E3780" t="s">
-        <v>4555</v>
+        <v>4565</v>
       </c>
       <c r="K3780">
-        <v>11</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3781" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3781" t="s">
-        <v>3839</v>
+        <v>3838</v>
       </c>
       <c r="E3781" t="s">
-        <v>4192</v>
+        <v>4555</v>
       </c>
       <c r="K3781">
         <v>11</v>
@@ -57065,326 +57068,326 @@
     </row>
     <row r="3782" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3782" t="s">
-        <v>3840</v>
+        <v>3839</v>
       </c>
       <c r="E3782" t="s">
-        <v>4153</v>
+        <v>4192</v>
       </c>
       <c r="K3782">
-        <v>10.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3783" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3783" t="s">
-        <v>3841</v>
+        <v>3840</v>
       </c>
       <c r="E3783" t="s">
-        <v>4443</v>
+        <v>4153</v>
       </c>
       <c r="K3783">
-        <v>35</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="3784" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3784" t="s">
-        <v>3842</v>
+        <v>3841</v>
       </c>
       <c r="E3784" t="s">
-        <v>4074</v>
+        <v>4443</v>
       </c>
       <c r="K3784">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3785" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3785" t="s">
-        <v>3843</v>
+        <v>3842</v>
       </c>
       <c r="E3785" t="s">
         <v>4074</v>
       </c>
       <c r="K3785">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3786" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3786" t="s">
-        <v>3844</v>
+        <v>3843</v>
       </c>
       <c r="E3786" t="s">
         <v>4074</v>
       </c>
       <c r="K3786">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3787" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3787" t="s">
-        <v>3845</v>
+        <v>3844</v>
       </c>
       <c r="E3787" t="s">
-        <v>4441</v>
+        <v>4074</v>
       </c>
       <c r="K3787">
-        <v>80</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3788" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3788" t="s">
-        <v>3846</v>
+        <v>3845</v>
       </c>
       <c r="E3788" t="s">
-        <v>4443</v>
+        <v>4441</v>
       </c>
       <c r="K3788">
-        <v>6.5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3789" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3789" t="s">
-        <v>3847</v>
+        <v>3846</v>
       </c>
       <c r="E3789" t="s">
-        <v>4457</v>
+        <v>4443</v>
       </c>
       <c r="K3789">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="3790" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3790" t="s">
-        <v>3848</v>
+        <v>3847</v>
       </c>
       <c r="E3790" t="s">
-        <v>4957</v>
+        <v>4457</v>
       </c>
       <c r="K3790">
-        <v>8</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="3791" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3791" t="s">
-        <v>3849</v>
+        <v>3848</v>
       </c>
       <c r="E3791" t="s">
-        <v>4958</v>
+        <v>4957</v>
       </c>
       <c r="K3791">
-        <v>1.2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3792" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3792" t="s">
-        <v>3850</v>
+        <v>3849</v>
       </c>
       <c r="E3792" t="s">
-        <v>4153</v>
+        <v>4958</v>
       </c>
       <c r="K3792">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="3793" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3793" t="s">
-        <v>3851</v>
+        <v>3850</v>
       </c>
       <c r="E3793" t="s">
-        <v>4192</v>
+        <v>4153</v>
       </c>
       <c r="K3793">
-        <v>9.9</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3794" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3794" t="s">
-        <v>3852</v>
+        <v>3851</v>
       </c>
       <c r="E3794" t="s">
-        <v>4564</v>
+        <v>4192</v>
       </c>
       <c r="K3794">
-        <v>19.899999999999999</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="3795" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3795" t="s">
-        <v>3853</v>
+        <v>3852</v>
       </c>
       <c r="E3795" t="s">
-        <v>4959</v>
+        <v>4564</v>
       </c>
       <c r="K3795">
-        <v>4</v>
+        <v>19.899999999999999</v>
       </c>
     </row>
     <row r="3796" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3796" t="s">
-        <v>3854</v>
+        <v>3853</v>
       </c>
       <c r="E3796" t="s">
-        <v>4751</v>
+        <v>4959</v>
       </c>
       <c r="K3796">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3797" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3797" t="s">
-        <v>3855</v>
+        <v>3854</v>
       </c>
       <c r="E3797" t="s">
         <v>4751</v>
       </c>
       <c r="K3797">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3798" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3798" t="s">
-        <v>3856</v>
+        <v>3855</v>
       </c>
       <c r="E3798" t="s">
-        <v>4443</v>
+        <v>4751</v>
       </c>
       <c r="K3798">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3799" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3799" t="s">
-        <v>3857</v>
+        <v>3856</v>
       </c>
       <c r="E3799" t="s">
         <v>4443</v>
       </c>
       <c r="K3799">
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3800" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3800" t="s">
-        <v>3858</v>
+        <v>3857</v>
       </c>
       <c r="E3800" t="s">
         <v>4443</v>
       </c>
       <c r="K3800">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="3801" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3801" t="s">
-        <v>3859</v>
+        <v>3858</v>
       </c>
       <c r="E3801" t="s">
-        <v>4960</v>
+        <v>4443</v>
       </c>
       <c r="K3801">
-        <v>5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3802" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3802" t="s">
-        <v>3860</v>
+        <v>3859</v>
       </c>
       <c r="E3802" t="s">
-        <v>4503</v>
+        <v>4960</v>
       </c>
       <c r="K3802">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3803" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3803" t="s">
-        <v>3861</v>
+        <v>3860</v>
       </c>
       <c r="E3803" t="s">
         <v>4503</v>
       </c>
       <c r="K3803">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="3804" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3804" t="s">
-        <v>3862</v>
+        <v>3861</v>
       </c>
       <c r="E3804" t="s">
-        <v>4755</v>
+        <v>4503</v>
       </c>
       <c r="K3804">
-        <v>12</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="3805" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3805" t="s">
-        <v>3863</v>
+        <v>3862</v>
       </c>
       <c r="E3805" t="s">
         <v>4755</v>
       </c>
       <c r="K3805">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3806" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3806" t="s">
-        <v>3864</v>
+        <v>3863</v>
       </c>
       <c r="E3806" t="s">
-        <v>4961</v>
+        <v>4755</v>
       </c>
       <c r="K3806">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3807" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3807" t="s">
-        <v>3865</v>
+        <v>3864</v>
       </c>
       <c r="E3807" t="s">
-        <v>4565</v>
+        <v>4961</v>
       </c>
       <c r="K3807">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3808" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3808" t="s">
-        <v>3866</v>
+        <v>3865</v>
       </c>
       <c r="E3808" t="s">
-        <v>4962</v>
+        <v>4565</v>
       </c>
       <c r="K3808">
-        <v>8.5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3809" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3809" t="s">
-        <v>3867</v>
+        <v>3866</v>
       </c>
       <c r="E3809" t="s">
-        <v>4963</v>
+        <v>4962</v>
       </c>
       <c r="K3809">
-        <v>85</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="3810" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3810" t="s">
-        <v>3868</v>
+        <v>3867</v>
       </c>
       <c r="E3810" t="s">
-        <v>4436</v>
+        <v>4963</v>
       </c>
       <c r="K3810">
-        <v>32</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3811" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3811" t="s">
-        <v>3869</v>
+        <v>3868</v>
       </c>
       <c r="E3811" t="s">
         <v>4436</v>
@@ -57395,98 +57398,98 @@
     </row>
     <row r="3812" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3812" t="s">
-        <v>3870</v>
+        <v>3869</v>
       </c>
       <c r="E3812" t="s">
-        <v>4620</v>
+        <v>4436</v>
       </c>
       <c r="K3812">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3813" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3813" t="s">
-        <v>3871</v>
+        <v>3870</v>
       </c>
       <c r="E3813" t="s">
-        <v>4444</v>
+        <v>4620</v>
       </c>
       <c r="K3813">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3814" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3814" t="s">
-        <v>3872</v>
+        <v>3871</v>
       </c>
       <c r="E3814" t="s">
         <v>4444</v>
       </c>
       <c r="K3814">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3815" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3815" t="s">
-        <v>3873</v>
+        <v>3872</v>
       </c>
       <c r="E3815" t="s">
-        <v>4569</v>
+        <v>4444</v>
       </c>
       <c r="K3815">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3816" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3816" t="s">
-        <v>3874</v>
+        <v>3873</v>
       </c>
       <c r="E3816" t="s">
-        <v>4369</v>
+        <v>4569</v>
       </c>
       <c r="K3816">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3817" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3817" t="s">
-        <v>3875</v>
+        <v>3874</v>
       </c>
       <c r="E3817" t="s">
-        <v>4755</v>
+        <v>4369</v>
       </c>
       <c r="K3817">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3818" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3818" t="s">
-        <v>3876</v>
+        <v>3875</v>
       </c>
       <c r="E3818" t="s">
-        <v>4474</v>
+        <v>4755</v>
       </c>
       <c r="K3818">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3819" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3819" t="s">
-        <v>3877</v>
+        <v>3876</v>
       </c>
       <c r="E3819" t="s">
-        <v>4964</v>
+        <v>4474</v>
       </c>
       <c r="K3819">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3820" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3820" t="s">
-        <v>3878</v>
+        <v>3877</v>
       </c>
       <c r="E3820" t="s">
-        <v>4453</v>
+        <v>4964</v>
       </c>
       <c r="K3820">
         <v>4</v>
@@ -57494,549 +57497,549 @@
     </row>
     <row r="3821" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3821" t="s">
-        <v>3879</v>
+        <v>3878</v>
       </c>
       <c r="E3821" t="s">
-        <v>4606</v>
+        <v>4453</v>
       </c>
       <c r="K3821">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3822" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3822" t="s">
-        <v>3880</v>
+        <v>3879</v>
       </c>
       <c r="E3822" t="s">
-        <v>4436</v>
+        <v>4606</v>
       </c>
       <c r="K3822">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3823" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3823" t="s">
-        <v>3881</v>
+        <v>3880</v>
       </c>
       <c r="E3823" t="s">
-        <v>4473</v>
+        <v>4436</v>
       </c>
       <c r="K3823">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3824" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3824" t="s">
-        <v>3882</v>
+        <v>3881</v>
       </c>
       <c r="E3824" t="s">
-        <v>4872</v>
+        <v>4473</v>
       </c>
       <c r="K3824">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3825" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3825" t="s">
-        <v>3883</v>
+        <v>3882</v>
       </c>
       <c r="E3825" t="s">
-        <v>4443</v>
+        <v>4872</v>
       </c>
       <c r="K3825">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3826" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3826" t="s">
-        <v>3884</v>
+        <v>3883</v>
       </c>
       <c r="E3826" t="s">
-        <v>4965</v>
+        <v>4443</v>
       </c>
       <c r="K3826">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3827" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3827" t="s">
-        <v>3885</v>
+        <v>3884</v>
       </c>
       <c r="E3827" t="s">
-        <v>4491</v>
+        <v>4965</v>
       </c>
       <c r="K3827">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3828" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3828" t="s">
-        <v>3886</v>
+        <v>3885</v>
       </c>
       <c r="E3828" t="s">
-        <v>4957</v>
+        <v>4491</v>
       </c>
       <c r="K3828">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3829" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3829" t="s">
-        <v>3887</v>
+        <v>3886</v>
       </c>
       <c r="E3829" t="s">
-        <v>4966</v>
+        <v>4957</v>
       </c>
       <c r="K3829">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3830" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3830" t="s">
-        <v>3888</v>
+        <v>3887</v>
       </c>
       <c r="E3830" t="s">
-        <v>4153</v>
+        <v>4966</v>
       </c>
       <c r="K3830">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3831" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3831" t="s">
-        <v>3889</v>
+        <v>3888</v>
       </c>
       <c r="E3831" t="s">
         <v>4153</v>
       </c>
       <c r="K3831">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3832" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3832" t="s">
-        <v>3890</v>
+        <v>3889</v>
       </c>
       <c r="E3832" t="s">
-        <v>4967</v>
+        <v>4153</v>
       </c>
       <c r="K3832">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3833" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3833" t="s">
-        <v>3891</v>
+        <v>3890</v>
       </c>
       <c r="E3833" t="s">
-        <v>4565</v>
+        <v>4967</v>
       </c>
       <c r="K3833">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3834" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3834" t="s">
-        <v>3892</v>
+        <v>3891</v>
       </c>
       <c r="E3834" t="s">
-        <v>4474</v>
+        <v>4565</v>
       </c>
       <c r="K3834">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3835" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3835" t="s">
-        <v>3893</v>
+        <v>3892</v>
       </c>
       <c r="E3835" t="s">
-        <v>4369</v>
+        <v>4474</v>
       </c>
       <c r="K3835">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3836" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3836" t="s">
-        <v>3894</v>
+        <v>3893</v>
       </c>
       <c r="E3836" t="s">
-        <v>4957</v>
+        <v>4369</v>
       </c>
       <c r="K3836">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3837" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3837" t="s">
-        <v>3895</v>
+        <v>3894</v>
       </c>
       <c r="E3837" t="s">
-        <v>4441</v>
+        <v>4957</v>
       </c>
       <c r="K3837">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3838" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3838" t="s">
-        <v>3896</v>
+        <v>3895</v>
       </c>
       <c r="E3838" t="s">
-        <v>4564</v>
+        <v>4441</v>
       </c>
       <c r="K3838">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3839" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3839" t="s">
-        <v>3897</v>
+        <v>3896</v>
       </c>
       <c r="E3839" t="s">
-        <v>4153</v>
+        <v>4564</v>
       </c>
       <c r="K3839">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3840" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3840" t="s">
-        <v>3898</v>
+        <v>3897</v>
       </c>
       <c r="E3840" t="s">
-        <v>4474</v>
+        <v>4153</v>
       </c>
       <c r="K3840">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3841" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3841" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E3841" t="s">
-        <v>4564</v>
+        <v>4474</v>
       </c>
       <c r="K3841">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3842" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3842" t="s">
-        <v>3900</v>
+        <v>3899</v>
       </c>
       <c r="E3842" t="s">
-        <v>4441</v>
+        <v>4564</v>
       </c>
       <c r="K3842">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3843" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3843" t="s">
-        <v>3901</v>
+        <v>3900</v>
       </c>
       <c r="E3843" t="s">
-        <v>4564</v>
+        <v>4441</v>
       </c>
       <c r="K3843">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3844" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3844" t="s">
-        <v>3902</v>
+        <v>3901</v>
       </c>
       <c r="E3844" t="s">
-        <v>4452</v>
+        <v>4564</v>
       </c>
       <c r="K3844">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3845" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3845" t="s">
-        <v>3903</v>
+        <v>3902</v>
       </c>
       <c r="E3845" t="s">
         <v>4452</v>
       </c>
       <c r="K3845">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3846" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3846" t="s">
-        <v>3904</v>
+        <v>3903</v>
       </c>
       <c r="E3846" t="s">
         <v>4452</v>
       </c>
       <c r="K3846">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3847" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3847" t="s">
-        <v>3905</v>
+        <v>3904</v>
       </c>
       <c r="E3847" t="s">
         <v>4452</v>
       </c>
       <c r="K3847">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3848" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3848" t="s">
-        <v>3906</v>
+        <v>3905</v>
       </c>
       <c r="E3848" t="s">
-        <v>4443</v>
+        <v>4452</v>
       </c>
       <c r="K3848">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3849" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3849" t="s">
-        <v>3907</v>
+        <v>3906</v>
       </c>
       <c r="E3849" t="s">
-        <v>4491</v>
+        <v>4443</v>
       </c>
       <c r="K3849">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3850" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3850" t="s">
-        <v>3908</v>
+        <v>3907</v>
       </c>
       <c r="E3850" t="s">
-        <v>4074</v>
+        <v>4491</v>
       </c>
       <c r="K3850">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3851" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3851" t="s">
-        <v>3909</v>
+        <v>3908</v>
       </c>
       <c r="E3851" t="s">
         <v>4074</v>
       </c>
       <c r="K3851">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3852" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3852" t="s">
-        <v>3910</v>
+        <v>3909</v>
       </c>
       <c r="E3852" t="s">
         <v>4074</v>
       </c>
       <c r="K3852">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3853" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3853" t="s">
-        <v>3911</v>
+        <v>3910</v>
       </c>
       <c r="E3853" t="s">
-        <v>4455</v>
+        <v>4074</v>
       </c>
       <c r="K3853">
-        <v>85</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3854" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3854" t="s">
-        <v>3912</v>
+        <v>3911</v>
       </c>
       <c r="E3854" t="s">
         <v>4455</v>
       </c>
       <c r="K3854">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3855" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3855" t="s">
-        <v>3913</v>
+        <v>3912</v>
       </c>
       <c r="E3855" t="s">
-        <v>4153</v>
+        <v>4455</v>
       </c>
       <c r="K3855">
-        <v>34</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3856" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3856" t="s">
-        <v>3914</v>
+        <v>3913</v>
       </c>
       <c r="E3856" t="s">
-        <v>4564</v>
+        <v>4153</v>
       </c>
       <c r="K3856">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3857" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3857" t="s">
-        <v>3915</v>
+        <v>3914</v>
       </c>
       <c r="E3857" t="s">
-        <v>4968</v>
+        <v>4564</v>
       </c>
       <c r="K3857">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3858" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3858" t="s">
-        <v>3916</v>
+        <v>3915</v>
       </c>
       <c r="E3858" t="s">
-        <v>4380</v>
+        <v>4968</v>
       </c>
       <c r="K3858">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3859" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3859" t="s">
-        <v>3917</v>
+        <v>3916</v>
       </c>
       <c r="E3859" t="s">
-        <v>4968</v>
+        <v>4380</v>
       </c>
       <c r="K3859">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3860" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3860" t="s">
-        <v>3918</v>
+        <v>3917</v>
       </c>
       <c r="E3860" t="s">
         <v>4968</v>
       </c>
       <c r="K3860">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3861" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3861" t="s">
-        <v>3919</v>
+        <v>3918</v>
       </c>
       <c r="E3861" t="s">
-        <v>4074</v>
+        <v>4968</v>
       </c>
       <c r="K3861">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3862" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3862" t="s">
-        <v>3920</v>
+        <v>3919</v>
       </c>
       <c r="E3862" t="s">
-        <v>4380</v>
+        <v>4074</v>
       </c>
       <c r="K3862">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3863" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3863" t="s">
-        <v>3921</v>
+        <v>3920</v>
       </c>
       <c r="E3863" t="s">
-        <v>4074</v>
+        <v>4380</v>
       </c>
       <c r="K3863">
-        <v>70</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3864" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3864" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="E3864" t="s">
-        <v>4443</v>
+        <v>4074</v>
       </c>
       <c r="K3864">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3865" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3865" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="E3865" t="s">
-        <v>4192</v>
+        <v>4443</v>
       </c>
       <c r="K3865">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3866" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3866" t="s">
-        <v>3924</v>
+        <v>3923</v>
       </c>
       <c r="E3866" t="s">
-        <v>4564</v>
+        <v>4192</v>
       </c>
       <c r="K3866">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3867" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3867" t="s">
-        <v>3925</v>
+        <v>3924</v>
       </c>
       <c r="E3867" t="s">
-        <v>4969</v>
+        <v>4564</v>
       </c>
       <c r="K3867">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3868" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3868" t="s">
-        <v>3926</v>
+        <v>3925</v>
       </c>
       <c r="E3868" t="s">
-        <v>4441</v>
+        <v>4969</v>
       </c>
       <c r="K3868">
-        <v>55</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3869" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3869" t="s">
-        <v>3927</v>
+        <v>3926</v>
       </c>
       <c r="E3869" t="s">
         <v>4441</v>
       </c>
       <c r="K3869">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3870" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3870" t="s">
-        <v>3928</v>
+        <v>3927</v>
       </c>
       <c r="E3870" t="s">
-        <v>4967</v>
+        <v>4441</v>
       </c>
       <c r="K3870">
         <v>35</v>
@@ -58044,274 +58047,274 @@
     </row>
     <row r="3871" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3871" t="s">
-        <v>3929</v>
+        <v>3928</v>
       </c>
       <c r="E3871" t="s">
         <v>4967</v>
       </c>
       <c r="K3871">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3872" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3872" t="s">
-        <v>3930</v>
+        <v>3929</v>
       </c>
       <c r="E3872" t="s">
-        <v>4970</v>
+        <v>4967</v>
       </c>
       <c r="K3872">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3873" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3873" t="s">
-        <v>3931</v>
+        <v>3930</v>
       </c>
       <c r="E3873" t="s">
-        <v>4436</v>
+        <v>4970</v>
       </c>
       <c r="K3873">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3874" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3874" t="s">
-        <v>3932</v>
+        <v>3931</v>
       </c>
       <c r="E3874" t="s">
-        <v>4074</v>
+        <v>4436</v>
       </c>
       <c r="K3874">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3875" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3875" t="s">
-        <v>3933</v>
+        <v>3932</v>
       </c>
       <c r="E3875" t="s">
-        <v>4473</v>
+        <v>4074</v>
       </c>
       <c r="K3875">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3876" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3876" t="s">
-        <v>3934</v>
+        <v>3933</v>
       </c>
       <c r="E3876" t="s">
-        <v>4380</v>
+        <v>4473</v>
       </c>
       <c r="K3876">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3877" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3877" t="s">
-        <v>3935</v>
+        <v>3934</v>
       </c>
       <c r="E3877" t="s">
-        <v>4153</v>
+        <v>4380</v>
       </c>
       <c r="K3877">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3878" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3878" t="s">
-        <v>3936</v>
+        <v>3935</v>
       </c>
       <c r="E3878" t="s">
-        <v>4193</v>
+        <v>4153</v>
       </c>
       <c r="K3878">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3879" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3879" t="s">
-        <v>3937</v>
+        <v>3936</v>
       </c>
       <c r="E3879" t="s">
-        <v>4971</v>
+        <v>4193</v>
       </c>
       <c r="K3879">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3880" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3880" t="s">
-        <v>3938</v>
+        <v>3937</v>
       </c>
       <c r="E3880" t="s">
-        <v>4221</v>
+        <v>4971</v>
       </c>
       <c r="K3880">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3881" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3881" t="s">
-        <v>3939</v>
+        <v>3938</v>
       </c>
       <c r="E3881" t="s">
-        <v>4250</v>
+        <v>4221</v>
       </c>
       <c r="K3881">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3882" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3882" t="s">
-        <v>3940</v>
+        <v>3939</v>
       </c>
       <c r="E3882" t="s">
-        <v>4259</v>
+        <v>4250</v>
       </c>
       <c r="K3882">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3883" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3883" t="s">
-        <v>3941</v>
+        <v>3940</v>
       </c>
       <c r="E3883" t="s">
-        <v>4134</v>
+        <v>4259</v>
       </c>
       <c r="K3883">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3884" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3884" t="s">
-        <v>3942</v>
+        <v>3941</v>
       </c>
       <c r="E3884" t="s">
         <v>4134</v>
       </c>
       <c r="K3884">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3885" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3885" t="s">
-        <v>3943</v>
+        <v>3942</v>
       </c>
       <c r="E3885" t="s">
-        <v>4490</v>
+        <v>4134</v>
       </c>
       <c r="K3885">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3886" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3886" t="s">
-        <v>3944</v>
+        <v>3943</v>
       </c>
       <c r="E3886" t="s">
-        <v>4445</v>
+        <v>4490</v>
       </c>
       <c r="K3886">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3887" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3887" t="s">
-        <v>3945</v>
+        <v>3944</v>
       </c>
       <c r="E3887" t="s">
-        <v>4689</v>
+        <v>4445</v>
       </c>
       <c r="K3887">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3888" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3888" t="s">
-        <v>3946</v>
+        <v>3945</v>
       </c>
       <c r="E3888" t="s">
-        <v>4114</v>
+        <v>4689</v>
       </c>
       <c r="K3888">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3889" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3889" t="s">
-        <v>3947</v>
+        <v>3946</v>
       </c>
       <c r="E3889" t="s">
-        <v>4635</v>
+        <v>4114</v>
       </c>
       <c r="K3889">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3890" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3890" t="s">
-        <v>3948</v>
+        <v>3947</v>
       </c>
       <c r="E3890" t="s">
-        <v>4112</v>
+        <v>4635</v>
       </c>
       <c r="K3890">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3891" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3891" t="s">
-        <v>3949</v>
+        <v>3948</v>
       </c>
       <c r="E3891" t="s">
-        <v>4908</v>
+        <v>4112</v>
       </c>
       <c r="K3891">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3892" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3892" t="s">
-        <v>3950</v>
+        <v>3949</v>
       </c>
       <c r="E3892" t="s">
-        <v>4896</v>
+        <v>4908</v>
       </c>
       <c r="K3892">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3893" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3893" t="s">
-        <v>3951</v>
+        <v>3950</v>
       </c>
       <c r="E3893" t="s">
-        <v>4153</v>
+        <v>4896</v>
       </c>
       <c r="K3893">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3894" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3894" t="s">
-        <v>3952</v>
+        <v>3951</v>
       </c>
       <c r="E3894" t="s">
-        <v>4504</v>
+        <v>4153</v>
       </c>
       <c r="K3894">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3895" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3895" t="s">
-        <v>3953</v>
+        <v>3952</v>
       </c>
       <c r="E3895" t="s">
-        <v>4565</v>
+        <v>4504</v>
       </c>
       <c r="K3895">
         <v>15</v>
@@ -58319,98 +58322,98 @@
     </row>
     <row r="3896" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3896" t="s">
-        <v>3954</v>
+        <v>3953</v>
       </c>
       <c r="E3896" t="s">
-        <v>4972</v>
+        <v>4565</v>
       </c>
       <c r="K3896">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3897" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3897" t="s">
-        <v>3955</v>
+        <v>3954</v>
       </c>
       <c r="E3897" t="s">
-        <v>4888</v>
+        <v>4972</v>
       </c>
       <c r="K3897">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3898" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3898" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="E3898" t="s">
-        <v>4973</v>
+        <v>4888</v>
       </c>
       <c r="K3898">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3899" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3899" t="s">
-        <v>3957</v>
+        <v>3956</v>
       </c>
       <c r="E3899" t="s">
-        <v>4686</v>
+        <v>4973</v>
       </c>
       <c r="K3899">
-        <v>2.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3900" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3900" t="s">
-        <v>3958</v>
+        <v>3957</v>
       </c>
       <c r="E3900" t="s">
-        <v>4890</v>
+        <v>4686</v>
       </c>
       <c r="K3900">
-        <v>12</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3901" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3901" t="s">
-        <v>3959</v>
+        <v>3958</v>
       </c>
       <c r="E3901" t="s">
-        <v>4974</v>
+        <v>4890</v>
       </c>
       <c r="K3901">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3902" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3902" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="E3902" t="s">
-        <v>4680</v>
+        <v>4974</v>
       </c>
       <c r="K3902">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3903" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3903" t="s">
-        <v>3961</v>
+        <v>3960</v>
       </c>
       <c r="E3903" t="s">
-        <v>4687</v>
+        <v>4680</v>
       </c>
       <c r="K3903">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3904" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3904" t="s">
-        <v>3962</v>
+        <v>3961</v>
       </c>
       <c r="E3904" t="s">
-        <v>4585</v>
+        <v>4687</v>
       </c>
       <c r="K3904">
         <v>15</v>
@@ -58418,43 +58421,43 @@
     </row>
     <row r="3905" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3905" t="s">
-        <v>3963</v>
+        <v>3962</v>
       </c>
       <c r="E3905" t="s">
-        <v>4975</v>
+        <v>4585</v>
       </c>
       <c r="K3905">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3906" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3906" t="s">
-        <v>3964</v>
+        <v>3963</v>
       </c>
       <c r="E3906" t="s">
-        <v>4585</v>
+        <v>4975</v>
       </c>
       <c r="K3906">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3907" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3907" t="s">
-        <v>3965</v>
+        <v>3964</v>
       </c>
       <c r="E3907" t="s">
-        <v>4399</v>
+        <v>4585</v>
       </c>
       <c r="K3907">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3908" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3908" t="s">
-        <v>3966</v>
+        <v>3965</v>
       </c>
       <c r="E3908" t="s">
-        <v>4682</v>
+        <v>4399</v>
       </c>
       <c r="K3908">
         <v>10</v>
@@ -58462,197 +58465,197 @@
     </row>
     <row r="3909" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3909" t="s">
-        <v>3967</v>
+        <v>3966</v>
       </c>
       <c r="E3909" t="s">
-        <v>4585</v>
+        <v>4682</v>
       </c>
       <c r="K3909">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3910" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3910" t="s">
-        <v>3968</v>
+        <v>3967</v>
       </c>
       <c r="E3910" t="s">
-        <v>4687</v>
+        <v>4585</v>
       </c>
       <c r="K3910">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3911" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3911" t="s">
-        <v>3969</v>
+        <v>3968</v>
       </c>
       <c r="E3911" t="s">
-        <v>4976</v>
+        <v>4687</v>
       </c>
       <c r="K3911">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3912" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3912" t="s">
-        <v>3970</v>
+        <v>3969</v>
       </c>
       <c r="E3912" t="s">
-        <v>4977</v>
+        <v>4976</v>
       </c>
       <c r="K3912">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3913" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3913" t="s">
-        <v>3971</v>
+        <v>3970</v>
       </c>
       <c r="E3913" t="s">
-        <v>4978</v>
+        <v>4977</v>
       </c>
       <c r="K3913">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3914" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3914" t="s">
-        <v>3972</v>
+        <v>3971</v>
       </c>
       <c r="E3914" t="s">
         <v>4978</v>
       </c>
       <c r="K3914">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3915" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3915" t="s">
-        <v>3973</v>
+        <v>3972</v>
       </c>
       <c r="E3915" t="s">
-        <v>4979</v>
+        <v>4978</v>
       </c>
       <c r="K3915">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3916" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3916" t="s">
-        <v>3974</v>
+        <v>3973</v>
       </c>
       <c r="E3916" t="s">
-        <v>4980</v>
+        <v>4979</v>
       </c>
       <c r="K3916">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3917" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3917" t="s">
-        <v>3975</v>
+        <v>3974</v>
       </c>
       <c r="E3917" t="s">
         <v>4980</v>
       </c>
       <c r="K3917">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3918" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3918" t="s">
-        <v>3976</v>
+        <v>3975</v>
       </c>
       <c r="E3918" t="s">
-        <v>4687</v>
+        <v>4980</v>
       </c>
       <c r="K3918">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3919" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3919" t="s">
-        <v>3977</v>
+        <v>3976</v>
       </c>
       <c r="E3919" t="s">
-        <v>4981</v>
+        <v>4687</v>
       </c>
       <c r="K3919">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3920" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3920" t="s">
-        <v>3978</v>
+        <v>3977</v>
       </c>
       <c r="E3920" t="s">
-        <v>4982</v>
+        <v>4981</v>
       </c>
       <c r="K3920">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3921" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3921" t="s">
-        <v>3979</v>
+        <v>3978</v>
       </c>
       <c r="E3921" t="s">
-        <v>4977</v>
+        <v>4982</v>
       </c>
       <c r="K3921">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3922" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3922" t="s">
-        <v>3980</v>
+        <v>3979</v>
       </c>
       <c r="E3922" t="s">
-        <v>4680</v>
+        <v>4977</v>
       </c>
       <c r="K3922">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3923" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3923" t="s">
-        <v>3981</v>
+        <v>3980</v>
       </c>
       <c r="E3923" t="s">
-        <v>4978</v>
+        <v>4680</v>
       </c>
       <c r="K3923">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3924" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3924" t="s">
-        <v>3982</v>
+        <v>3981</v>
       </c>
       <c r="E3924" t="s">
-        <v>4680</v>
+        <v>4978</v>
       </c>
       <c r="K3924">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3925" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3925" t="s">
-        <v>3983</v>
+        <v>3982</v>
       </c>
       <c r="E3925" t="s">
-        <v>4687</v>
+        <v>4680</v>
       </c>
       <c r="K3925">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3926" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3926" t="s">
-        <v>3984</v>
+        <v>3983</v>
       </c>
       <c r="E3926" t="s">
-        <v>4983</v>
+        <v>4687</v>
       </c>
       <c r="K3926">
         <v>12</v>
@@ -58660,76 +58663,76 @@
     </row>
     <row r="3927" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3927" t="s">
-        <v>3985</v>
+        <v>3984</v>
       </c>
       <c r="E3927" t="s">
         <v>4983</v>
       </c>
       <c r="K3927">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3928" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3928" t="s">
-        <v>3986</v>
+        <v>3985</v>
       </c>
       <c r="E3928" t="s">
-        <v>4984</v>
+        <v>4983</v>
       </c>
       <c r="K3928">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3929" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3929" t="s">
-        <v>3987</v>
+        <v>3986</v>
       </c>
       <c r="E3929" t="s">
         <v>4984</v>
       </c>
       <c r="K3929">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3930" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3930" t="s">
-        <v>3988</v>
+        <v>3987</v>
       </c>
       <c r="E3930" t="s">
-        <v>4983</v>
+        <v>4984</v>
       </c>
       <c r="K3930">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3931" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3931" t="s">
-        <v>3989</v>
+        <v>3988</v>
       </c>
       <c r="E3931" t="s">
-        <v>4686</v>
+        <v>4983</v>
       </c>
       <c r="K3931">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3932" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3932" t="s">
-        <v>3990</v>
+        <v>3989</v>
       </c>
       <c r="E3932" t="s">
         <v>4686</v>
       </c>
       <c r="K3932">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3933" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3933" t="s">
-        <v>3991</v>
+        <v>3990</v>
       </c>
       <c r="E3933" t="s">
-        <v>4975</v>
+        <v>4686</v>
       </c>
       <c r="K3933">
         <v>15</v>
@@ -58737,10 +58740,10 @@
     </row>
     <row r="3934" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3934" t="s">
-        <v>3992</v>
+        <v>3991</v>
       </c>
       <c r="E3934" t="s">
-        <v>4463</v>
+        <v>4975</v>
       </c>
       <c r="K3934">
         <v>15</v>
@@ -58748,76 +58751,76 @@
     </row>
     <row r="3935" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3935" t="s">
-        <v>3993</v>
+        <v>3992</v>
       </c>
       <c r="E3935" t="s">
-        <v>4335</v>
+        <v>4463</v>
       </c>
       <c r="K3935">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3936" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3936" t="s">
-        <v>3994</v>
+        <v>3993</v>
       </c>
       <c r="E3936" t="s">
-        <v>4983</v>
+        <v>4335</v>
       </c>
       <c r="K3936">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3937" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3937" t="s">
-        <v>3995</v>
+        <v>3994</v>
       </c>
       <c r="E3937" t="s">
         <v>4983</v>
       </c>
       <c r="K3937">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3938" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3938" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
       <c r="E3938" t="s">
-        <v>4682</v>
+        <v>4983</v>
       </c>
       <c r="K3938">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3939" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3939" t="s">
-        <v>3997</v>
+        <v>3996</v>
       </c>
       <c r="E3939" t="s">
-        <v>4680</v>
+        <v>4682</v>
       </c>
       <c r="K3939">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3940" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3940" t="s">
-        <v>3998</v>
+        <v>3997</v>
       </c>
       <c r="E3940" t="s">
-        <v>4585</v>
+        <v>4680</v>
       </c>
       <c r="K3940">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3941" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3941" t="s">
-        <v>3999</v>
+        <v>3998</v>
       </c>
       <c r="E3941" t="s">
-        <v>4680</v>
+        <v>4585</v>
       </c>
       <c r="K3941">
         <v>30</v>
@@ -58825,76 +58828,76 @@
     </row>
     <row r="3942" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3942" t="s">
-        <v>4000</v>
+        <v>3999</v>
       </c>
       <c r="E3942" t="s">
         <v>4680</v>
       </c>
       <c r="K3942">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3943" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3943" t="s">
-        <v>4001</v>
+        <v>4000</v>
       </c>
       <c r="E3943" t="s">
-        <v>4585</v>
+        <v>4680</v>
       </c>
       <c r="K3943">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3944" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3944" t="s">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="E3944" t="s">
-        <v>4985</v>
+        <v>4585</v>
       </c>
       <c r="K3944">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3945" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3945" t="s">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="E3945" t="s">
-        <v>4986</v>
+        <v>4985</v>
       </c>
       <c r="K3945">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3946" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3946" t="s">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="E3946" t="s">
-        <v>4687</v>
+        <v>4986</v>
       </c>
       <c r="K3946">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3947" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3947" t="s">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="E3947" t="s">
         <v>4687</v>
       </c>
       <c r="K3947">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3948" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3948" t="s">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="E3948" t="s">
-        <v>4585</v>
+        <v>4687</v>
       </c>
       <c r="K3948">
         <v>10</v>
@@ -58902,54 +58905,54 @@
     </row>
     <row r="3949" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3949" t="s">
-        <v>4007</v>
+        <v>4006</v>
       </c>
       <c r="E3949" t="s">
-        <v>4686</v>
+        <v>4585</v>
       </c>
       <c r="K3949">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3950" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3950" t="s">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="E3950" t="s">
-        <v>4985</v>
+        <v>4686</v>
       </c>
       <c r="K3950">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3951" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3951" t="s">
-        <v>4009</v>
+        <v>4008</v>
       </c>
       <c r="E3951" t="s">
-        <v>4975</v>
+        <v>4985</v>
       </c>
       <c r="K3951">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3952" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3952" t="s">
-        <v>4010</v>
+        <v>4009</v>
       </c>
       <c r="E3952" t="s">
-        <v>4462</v>
+        <v>4975</v>
       </c>
       <c r="K3952">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3953" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3953" t="s">
-        <v>4011</v>
+        <v>4010</v>
       </c>
       <c r="E3953" t="s">
-        <v>4987</v>
+        <v>4462</v>
       </c>
       <c r="K3953">
         <v>5</v>
@@ -58957,175 +58960,175 @@
     </row>
     <row r="3954" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3954" t="s">
-        <v>4012</v>
+        <v>4011</v>
       </c>
       <c r="E3954" t="s">
-        <v>4686</v>
+        <v>4987</v>
       </c>
       <c r="K3954">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3955" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3955" t="s">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="E3955" t="s">
-        <v>4685</v>
+        <v>4686</v>
       </c>
       <c r="K3955">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3956" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3956" t="s">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="E3956" t="s">
-        <v>4988</v>
+        <v>4685</v>
       </c>
       <c r="K3956">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3957" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3957" t="s">
-        <v>4015</v>
+        <v>4014</v>
       </c>
       <c r="E3957" t="s">
-        <v>4989</v>
+        <v>4988</v>
       </c>
       <c r="K3957">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3958" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3958" t="s">
-        <v>4016</v>
+        <v>4015</v>
       </c>
       <c r="E3958" t="s">
         <v>4989</v>
       </c>
       <c r="K3958">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3959" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3959" t="s">
-        <v>4017</v>
+        <v>4016</v>
       </c>
       <c r="E3959" t="s">
-        <v>4990</v>
+        <v>4989</v>
       </c>
       <c r="K3959">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3960" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3960" t="s">
-        <v>4018</v>
+        <v>4017</v>
       </c>
       <c r="E3960" t="s">
-        <v>4991</v>
+        <v>4990</v>
       </c>
       <c r="K3960">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3961" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3961" t="s">
-        <v>4019</v>
+        <v>4018</v>
       </c>
       <c r="E3961" t="s">
-        <v>4992</v>
+        <v>4991</v>
       </c>
       <c r="K3961">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3962" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3962" t="s">
-        <v>4020</v>
+        <v>4019</v>
       </c>
       <c r="E3962" t="s">
-        <v>4985</v>
+        <v>4992</v>
       </c>
       <c r="K3962">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3963" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3963" t="s">
-        <v>4021</v>
+        <v>4020</v>
       </c>
       <c r="E3963" t="s">
         <v>4985</v>
       </c>
       <c r="K3963">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3964" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3964" t="s">
-        <v>4022</v>
+        <v>4021</v>
       </c>
       <c r="E3964" t="s">
-        <v>4989</v>
+        <v>4985</v>
       </c>
       <c r="K3964">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3965" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3965" t="s">
-        <v>4023</v>
+        <v>4022</v>
       </c>
       <c r="E3965" t="s">
-        <v>4585</v>
+        <v>4989</v>
       </c>
       <c r="K3965">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3966" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3966" t="s">
-        <v>4024</v>
+        <v>4023</v>
       </c>
       <c r="E3966" t="s">
         <v>4585</v>
       </c>
       <c r="K3966">
-        <v>80</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3967" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3967" t="s">
-        <v>4025</v>
+        <v>4024</v>
       </c>
       <c r="E3967" t="s">
-        <v>4680</v>
+        <v>4585</v>
       </c>
       <c r="K3967">
-        <v>9</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3968" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3968" t="s">
-        <v>4026</v>
+        <v>4025</v>
       </c>
       <c r="E3968" t="s">
-        <v>4989</v>
+        <v>4680</v>
       </c>
       <c r="K3968">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3969" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3969" t="s">
-        <v>4027</v>
+        <v>4026</v>
       </c>
       <c r="E3969" t="s">
-        <v>4975</v>
+        <v>4989</v>
       </c>
       <c r="K3969">
         <v>5</v>
@@ -59133,153 +59136,153 @@
     </row>
     <row r="3970" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3970" t="s">
-        <v>4028</v>
+        <v>4027</v>
       </c>
       <c r="E3970" t="s">
-        <v>4699</v>
+        <v>4975</v>
       </c>
       <c r="K3970">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3971" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3971" t="s">
-        <v>4029</v>
+        <v>4028</v>
       </c>
       <c r="E3971" t="s">
-        <v>4993</v>
+        <v>4699</v>
       </c>
       <c r="K3971">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3972" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3972" t="s">
-        <v>4030</v>
+        <v>4029</v>
       </c>
       <c r="E3972" t="s">
-        <v>4994</v>
+        <v>4993</v>
       </c>
       <c r="K3972">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3973" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3973" t="s">
-        <v>4031</v>
+        <v>4030</v>
       </c>
       <c r="E3973" t="s">
-        <v>4975</v>
+        <v>4994</v>
       </c>
       <c r="K3973">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3974" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3974" t="s">
-        <v>4032</v>
+        <v>4031</v>
       </c>
       <c r="E3974" t="s">
-        <v>4995</v>
+        <v>4975</v>
       </c>
       <c r="K3974">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3975" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3975" t="s">
-        <v>4033</v>
+        <v>4032</v>
       </c>
       <c r="E3975" t="s">
         <v>4995</v>
       </c>
       <c r="K3975">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3976" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3976" t="s">
-        <v>4034</v>
+        <v>4033</v>
       </c>
       <c r="E3976" t="s">
-        <v>4985</v>
+        <v>4995</v>
       </c>
       <c r="K3976">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3977" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3977" t="s">
-        <v>4035</v>
+        <v>4034</v>
       </c>
       <c r="E3977" t="s">
-        <v>4996</v>
+        <v>4985</v>
       </c>
       <c r="K3977">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3978" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3978" t="s">
-        <v>4036</v>
+        <v>4035</v>
       </c>
       <c r="E3978" t="s">
-        <v>4585</v>
+        <v>4996</v>
       </c>
       <c r="K3978">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3979" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3979" t="s">
-        <v>4037</v>
+        <v>4036</v>
       </c>
       <c r="E3979" t="s">
-        <v>4997</v>
+        <v>4585</v>
       </c>
       <c r="K3979">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3980" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3980" t="s">
-        <v>4038</v>
+        <v>4037</v>
       </c>
       <c r="E3980" t="s">
-        <v>4972</v>
+        <v>4997</v>
       </c>
       <c r="K3980">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3981" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3981" t="s">
-        <v>4039</v>
+        <v>4038</v>
       </c>
       <c r="E3981" t="s">
-        <v>4888</v>
+        <v>4972</v>
       </c>
       <c r="K3981">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3982" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3982" t="s">
-        <v>4040</v>
+        <v>4039</v>
       </c>
       <c r="E3982" t="s">
-        <v>4503</v>
+        <v>4888</v>
       </c>
       <c r="K3982">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3983" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3983" t="s">
-        <v>4041</v>
+        <v>4040</v>
       </c>
       <c r="E3983" t="s">
-        <v>4582</v>
+        <v>4503</v>
       </c>
       <c r="K3983">
         <v>7</v>
@@ -59287,131 +59290,131 @@
     </row>
     <row r="3984" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3984" t="s">
-        <v>4042</v>
+        <v>4041</v>
       </c>
       <c r="E3984" t="s">
-        <v>4585</v>
+        <v>4582</v>
       </c>
       <c r="K3984">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3985" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3985" t="s">
-        <v>4043</v>
+        <v>4042</v>
       </c>
       <c r="E3985" t="s">
         <v>4585</v>
       </c>
       <c r="K3985">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3986" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3986" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="E3986" t="s">
-        <v>4998</v>
+        <v>4585</v>
       </c>
       <c r="K3986">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3987" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3987" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="E3987" t="s">
-        <v>4999</v>
+        <v>4998</v>
       </c>
       <c r="K3987">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3988" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3988" t="s">
-        <v>4046</v>
+        <v>4045</v>
       </c>
       <c r="E3988" t="s">
-        <v>5000</v>
+        <v>4999</v>
       </c>
       <c r="K3988">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3989" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3989" t="s">
-        <v>4047</v>
+        <v>4046</v>
       </c>
       <c r="E3989" t="s">
-        <v>4975</v>
+        <v>5000</v>
       </c>
       <c r="K3989">
-        <v>285</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3990" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3990" t="s">
-        <v>4048</v>
+        <v>4047</v>
       </c>
       <c r="E3990" t="s">
-        <v>4362</v>
+        <v>4975</v>
       </c>
       <c r="K3990">
-        <v>3</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3991" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3991" t="s">
-        <v>4049</v>
+        <v>4048</v>
       </c>
       <c r="E3991" t="s">
-        <v>5001</v>
+        <v>4362</v>
       </c>
       <c r="K3991">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3992" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3992" t="s">
-        <v>4050</v>
+        <v>4049</v>
       </c>
       <c r="E3992" t="s">
-        <v>4993</v>
+        <v>5001</v>
       </c>
       <c r="K3992">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3993" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3993" t="s">
-        <v>4051</v>
+        <v>4050</v>
       </c>
       <c r="E3993" t="s">
-        <v>4335</v>
+        <v>4993</v>
       </c>
       <c r="K3993">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3994" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3994" t="s">
-        <v>4052</v>
+        <v>4051</v>
       </c>
       <c r="E3994" t="s">
-        <v>4423</v>
+        <v>4335</v>
       </c>
       <c r="K3994">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3995" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3995" t="s">
-        <v>4053</v>
+        <v>4052</v>
       </c>
       <c r="E3995" t="s">
-        <v>4483</v>
+        <v>4423</v>
       </c>
       <c r="K3995">
         <v>10</v>
@@ -59419,51 +59422,51 @@
     </row>
     <row r="3996" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3996" t="s">
-        <v>4054</v>
+        <v>4053</v>
       </c>
       <c r="E3996" t="s">
-        <v>4399</v>
+        <v>4483</v>
       </c>
       <c r="K3996">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3997" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3997" t="s">
-        <v>4055</v>
+        <v>4054</v>
       </c>
       <c r="E3997" t="s">
-        <v>4458</v>
+        <v>4399</v>
       </c>
       <c r="K3997">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3998" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3998" t="s">
-        <v>4056</v>
+        <v>4055</v>
       </c>
       <c r="E3998" t="s">
-        <v>4463</v>
+        <v>4458</v>
       </c>
       <c r="K3998">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3999" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3999" t="s">
-        <v>4057</v>
+        <v>4056</v>
       </c>
       <c r="E3999" t="s">
-        <v>4503</v>
+        <v>4463</v>
       </c>
       <c r="K3999">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4000" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4000" t="s">
-        <v>4058</v>
+        <v>4057</v>
       </c>
       <c r="E4000" t="s">
         <v>4503</v>
@@ -59474,98 +59477,98 @@
     </row>
     <row r="4001" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4001" t="s">
-        <v>4059</v>
+        <v>4058</v>
       </c>
       <c r="E4001" t="s">
-        <v>4423</v>
+        <v>4503</v>
       </c>
       <c r="K4001">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4002" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4002" t="s">
-        <v>4060</v>
+        <v>4059</v>
       </c>
       <c r="E4002" t="s">
-        <v>4685</v>
+        <v>4423</v>
       </c>
       <c r="K4002">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4003" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4003" t="s">
-        <v>4061</v>
+        <v>4060</v>
       </c>
       <c r="E4003" t="s">
         <v>4685</v>
       </c>
       <c r="K4003">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4004" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4004" t="s">
-        <v>4062</v>
+        <v>4061</v>
       </c>
       <c r="E4004" t="s">
         <v>4685</v>
       </c>
       <c r="K4004">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4005" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4005" t="s">
-        <v>471</v>
+        <v>4062</v>
       </c>
       <c r="E4005" t="s">
-        <v>5002</v>
+        <v>4685</v>
       </c>
       <c r="K4005">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4006" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4006" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E4006" t="s">
         <v>5002</v>
       </c>
       <c r="K4006">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4007" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4007" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="E4007" t="s">
-        <v>4432</v>
+        <v>5002</v>
       </c>
       <c r="K4007">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4008" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4008" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E4008" t="s">
         <v>4432</v>
       </c>
       <c r="K4008">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4009" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4009" t="s">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="E4009" t="s">
-        <v>5003</v>
+        <v>4432</v>
       </c>
       <c r="K4009">
         <v>5</v>
@@ -59573,109 +59576,109 @@
     </row>
     <row r="4010" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4010" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E4010" t="s">
-        <v>4400</v>
+        <v>5003</v>
       </c>
       <c r="K4010">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4011" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4011" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="E4011" t="s">
-        <v>4174</v>
+        <v>4400</v>
       </c>
       <c r="K4011">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4012" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4012" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="E4012" t="s">
-        <v>4393</v>
+        <v>4174</v>
       </c>
       <c r="K4012">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4013" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4013" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="E4013" t="s">
-        <v>4644</v>
+        <v>4393</v>
       </c>
       <c r="K4013">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4014" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4014" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="E4014" t="s">
-        <v>4432</v>
+        <v>4644</v>
       </c>
       <c r="K4014">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4015" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4015" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="E4015" t="s">
-        <v>5003</v>
+        <v>4432</v>
       </c>
       <c r="K4015">
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4016" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4016" t="s">
-        <v>1583</v>
+        <v>470</v>
       </c>
       <c r="E4016" t="s">
         <v>5003</v>
       </c>
       <c r="K4016">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="4017" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4017" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="E4017" t="s">
-        <v>5004</v>
+        <v>5003</v>
       </c>
       <c r="K4017">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4018" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4018" t="s">
-        <v>1669</v>
+        <v>1584</v>
       </c>
       <c r="E4018" t="s">
-        <v>4432</v>
+        <v>5004</v>
       </c>
       <c r="K4018">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4019" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4019" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="E4019" t="s">
-        <v>4644</v>
+        <v>4432</v>
       </c>
       <c r="K4019">
         <v>8</v>
@@ -59683,54 +59686,54 @@
     </row>
     <row r="4020" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4020" t="s">
-        <v>2166</v>
+        <v>1671</v>
       </c>
       <c r="E4020" t="s">
-        <v>4174</v>
+        <v>4644</v>
       </c>
       <c r="K4020">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4021" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4021" t="s">
-        <v>1985</v>
+        <v>2166</v>
       </c>
       <c r="E4021" t="s">
-        <v>4645</v>
+        <v>4174</v>
       </c>
       <c r="K4021">
-        <v>3.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4022" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4022" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="E4022" t="s">
-        <v>4640</v>
+        <v>4645</v>
       </c>
       <c r="K4022">
-        <v>38</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="4023" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4023" t="s">
-        <v>2312</v>
+        <v>1986</v>
       </c>
       <c r="E4023" t="s">
         <v>4640</v>
       </c>
       <c r="K4023">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4024" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4024" t="s">
-        <v>261</v>
+        <v>2312</v>
       </c>
       <c r="E4024" t="s">
-        <v>4665</v>
+        <v>4640</v>
       </c>
       <c r="K4024">
         <v>25</v>
@@ -59738,475 +59741,483 @@
     </row>
     <row r="4025" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4025" t="s">
-        <v>1630</v>
+        <v>261</v>
       </c>
       <c r="E4025" t="s">
-        <v>4670</v>
+        <v>4665</v>
       </c>
       <c r="K4025">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4026" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4026" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="E4026" t="s">
         <v>4670</v>
       </c>
       <c r="K4026">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4027" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4027" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="E4027" t="s">
-        <v>4542</v>
+        <v>4670</v>
       </c>
       <c r="K4027">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4028" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4028" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="E4028" t="s">
-        <v>4640</v>
+        <v>4542</v>
       </c>
       <c r="K4028">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4029" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4029" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="E4029" t="s">
-        <v>4545</v>
+        <v>4640</v>
       </c>
       <c r="K4029">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4030" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4030" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="E4030" t="s">
-        <v>4665</v>
+        <v>4545</v>
       </c>
       <c r="K4030">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4031" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4031" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="E4031" t="s">
-        <v>5005</v>
+        <v>4665</v>
       </c>
       <c r="K4031">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4032" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4032" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="E4032" t="s">
-        <v>4666</v>
+        <v>5005</v>
       </c>
       <c r="K4032">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4033" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4033" t="s">
-        <v>1846</v>
+        <v>1637</v>
       </c>
       <c r="E4033" t="s">
-        <v>4640</v>
+        <v>4666</v>
       </c>
       <c r="K4033">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4034" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4034" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="E4034" t="s">
-        <v>5006</v>
+        <v>4640</v>
       </c>
       <c r="K4034">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4035" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4035" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="E4035" t="s">
-        <v>5007</v>
+        <v>5006</v>
       </c>
       <c r="K4035">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4036" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4036" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="E4036" t="s">
-        <v>4135</v>
+        <v>5007</v>
       </c>
       <c r="K4036">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4037" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4037" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="E4037" t="s">
-        <v>4356</v>
+        <v>4135</v>
       </c>
       <c r="K4037">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4038" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4038" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="E4038" t="s">
-        <v>5008</v>
+        <v>4356</v>
       </c>
       <c r="K4038">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4039" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4039" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="E4039" t="s">
-        <v>5009</v>
+        <v>5008</v>
       </c>
       <c r="K4039">
-        <v>65</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4040" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4040" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="E4040" t="s">
-        <v>5010</v>
+        <v>5009</v>
       </c>
       <c r="K4040">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4041" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4041" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="E4041" t="s">
-        <v>5011</v>
+        <v>5010</v>
       </c>
       <c r="K4041">
-        <v>7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4042" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4042" t="s">
-        <v>1866</v>
+        <v>1854</v>
       </c>
       <c r="E4042" t="s">
-        <v>5012</v>
+        <v>5011</v>
       </c>
       <c r="K4042">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4043" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4043" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="E4043" t="s">
-        <v>4274</v>
+        <v>5012</v>
       </c>
       <c r="K4043">
-        <v>1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4044" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4044" t="s">
-        <v>1990</v>
+        <v>1867</v>
       </c>
       <c r="E4044" t="s">
-        <v>4640</v>
+        <v>4274</v>
       </c>
       <c r="K4044">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4045" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4045" t="s">
-        <v>2009</v>
+        <v>1990</v>
       </c>
       <c r="E4045" t="s">
-        <v>4135</v>
+        <v>4640</v>
       </c>
       <c r="K4045">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4046" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4046" t="s">
-        <v>2075</v>
+        <v>2009</v>
       </c>
       <c r="E4046" t="s">
-        <v>5013</v>
+        <v>4135</v>
       </c>
       <c r="K4046">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4047" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4047" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="E4047" t="s">
-        <v>5014</v>
+        <v>5013</v>
       </c>
       <c r="K4047">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4048" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4048" t="s">
-        <v>2086</v>
+        <v>2076</v>
       </c>
       <c r="E4048" t="s">
-        <v>4245</v>
+        <v>5014</v>
       </c>
       <c r="K4048">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4049" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4049" t="s">
-        <v>2108</v>
+        <v>2086</v>
       </c>
       <c r="E4049" t="s">
-        <v>4851</v>
+        <v>4245</v>
       </c>
       <c r="K4049">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4050" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4050" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="E4050" t="s">
-        <v>5015</v>
+        <v>4851</v>
       </c>
       <c r="K4050">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4051" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4051" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="E4051" t="s">
-        <v>4191</v>
+        <v>5015</v>
       </c>
       <c r="K4051">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4052" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4052" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="E4052" t="s">
-        <v>4474</v>
+        <v>4191</v>
       </c>
       <c r="K4052">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4053" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4053" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="E4053" t="s">
-        <v>4423</v>
+        <v>4474</v>
       </c>
       <c r="K4053">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4054" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4054" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="E4054" t="s">
-        <v>4564</v>
+        <v>4423</v>
       </c>
       <c r="K4054">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4055" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4055" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="E4055" t="s">
-        <v>4474</v>
+        <v>4564</v>
       </c>
       <c r="K4055">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4056" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4056" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="E4056" t="s">
-        <v>5016</v>
+        <v>4474</v>
       </c>
       <c r="K4056">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4057" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4057" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="E4057" t="s">
-        <v>4564</v>
+        <v>5016</v>
       </c>
       <c r="K4057">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4058" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4058" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="E4058" t="s">
         <v>4564</v>
       </c>
       <c r="K4058">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4059" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4059" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="E4059" t="s">
-        <v>4423</v>
+        <v>4564</v>
       </c>
       <c r="K4059">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4060" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4060" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="E4060" t="s">
-        <v>4159</v>
+        <v>4423</v>
       </c>
       <c r="K4060">
-        <v>3.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4061" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4061" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="E4061" t="s">
         <v>4159</v>
       </c>
       <c r="K4061">
-        <v>6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="4062" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4062" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="E4062" t="s">
-        <v>4564</v>
+        <v>4159</v>
       </c>
       <c r="K4062">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4063" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4063" t="s">
-        <v>2140</v>
+        <v>2123</v>
       </c>
       <c r="E4063" t="s">
         <v>4564</v>
       </c>
       <c r="K4063">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4064" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4064" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="E4064" t="s">
         <v>4564</v>
       </c>
       <c r="K4064">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4065" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4065" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="E4065" t="s">
         <v>4564</v>
       </c>
       <c r="K4065">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4066" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4066" t="s">
-        <v>2179</v>
+        <v>2143</v>
       </c>
       <c r="E4066" t="s">
-        <v>4851</v>
+        <v>4564</v>
       </c>
       <c r="K4066">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4067" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4067" t="s">
-        <v>5028</v>
+        <v>2179</v>
       </c>
       <c r="E4067" t="s">
-        <v>5032</v>
+        <v>4851</v>
       </c>
       <c r="K4067">
-        <v>2</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4068" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E4068" t="s">
+        <v>5033</v>
+      </c>
+      <c r="K4068">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/SessionBackup/LastSessionItems.xlsx
+++ b/SessionBackup/LastSessionItems.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan\Desktop\codebarPrintingTool\SessionBackup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\codebarPrintingTool\SessionBackup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B605F0AC-B448-4E82-B303-977314AC4CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663AD6CE-C1B7-41C8-9FDF-2618EBBFE86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Productos" sheetId="1" r:id="rId1"/>
@@ -15479,7 +15479,7 @@
       <selection activeCell="B9561" sqref="B9561"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">

--- a/SessionBackup/LastSessionItems.xlsx
+++ b/SessionBackup/LastSessionItems.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\codebarPrintingTool\SessionBackup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan\Desktop\codebarPrintingTool\SessionBackup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663AD6CE-C1B7-41C8-9FDF-2618EBBFE86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975CDE01-A9C4-4CB9-8DC9-70D0F6C9DA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Productos" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8139" uniqueCount="5034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8140" uniqueCount="5035">
   <si>
     <t>#</t>
   </si>
@@ -15132,7 +15132,10 @@
     <t>SD008-Ajicero</t>
   </si>
   <si>
-    <t>F030-PANTALONETA</t>
+    <t>SQ009</t>
+  </si>
+  <si>
+    <t>SQ009-DELINEADOR</t>
   </si>
 </sst>
 </file>
@@ -15479,7 +15482,7 @@
       <selection activeCell="B9561" sqref="B9561"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -60213,11 +60216,14 @@
       </c>
     </row>
     <row r="4068" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4068" t="s">
+        <v>5033</v>
+      </c>
       <c r="E4068" t="s">
-        <v>5033</v>
+        <v>5034</v>
       </c>
       <c r="K4068">
-        <v>70</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/SessionBackup/LastSessionItems.xlsx
+++ b/SessionBackup/LastSessionItems.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan\Desktop\codebarPrintingTool\SessionBackup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C342716E-D7FA-43EE-B038-2905BAB4EE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0329C630-B235-45D9-94C9-37BA4BF3B10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/SessionBackup/LastSessionItems.xlsx
+++ b/SessionBackup/LastSessionItems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan\Desktop\codebarPrintingTool\SessionBackup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0329C630-B235-45D9-94C9-37BA4BF3B10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1FD4E0-62E0-4EDB-BABE-81D43B69F292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="27930" windowHeight="15855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Productos" sheetId="1" r:id="rId1"/>

--- a/SessionBackup/LastSessionItems.xlsx
+++ b/SessionBackup/LastSessionItems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan\Desktop\barcodeUtils\SessionBackup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE94EBC5-AF15-4B45-9EF1-513A73A53A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F9EDF1-2717-4961-A247-CA95F3CA87C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/SessionBackup/LastSessionItems.xlsx
+++ b/SessionBackup/LastSessionItems.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan\Desktop\barcodeUtils\SessionBackup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan\Desktop\barcodeutils\SessionBackup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F9EDF1-2717-4961-A247-CA95F3CA87C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A81F74-C9D0-4E12-9FBE-4A17943DC5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="4290" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Productos" sheetId="1" r:id="rId1"/>
